--- a/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9801212065749778</v>
+        <v>1.022123271942745</v>
       </c>
       <c r="D2">
-        <v>1.001960384202862</v>
+        <v>1.03718267541463</v>
       </c>
       <c r="E2">
-        <v>0.9885180324602647</v>
+        <v>1.031971506218476</v>
       </c>
       <c r="F2">
-        <v>0.9558890583039004</v>
+        <v>1.039825383553838</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035965274906676</v>
+        <v>1.056892689777787</v>
       </c>
       <c r="J2">
-        <v>1.002913192899337</v>
+        <v>1.043661831017678</v>
       </c>
       <c r="K2">
-        <v>1.01339247515762</v>
+        <v>1.048147205840802</v>
       </c>
       <c r="L2">
-        <v>1.000139681434899</v>
+        <v>1.043002696080758</v>
       </c>
       <c r="M2">
-        <v>0.9679991675616195</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.050756428057902</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9885845180830541</v>
+        <v>1.030589263139595</v>
       </c>
       <c r="D3">
-        <v>1.008238740282211</v>
+        <v>1.043842065869329</v>
       </c>
       <c r="E3">
-        <v>0.9956105850674539</v>
+        <v>1.039498842385101</v>
       </c>
       <c r="F3">
-        <v>0.9673388085792198</v>
+        <v>1.047719022400376</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038927148994614</v>
+        <v>1.06024755522957</v>
       </c>
       <c r="J3">
-        <v>1.009391293278831</v>
+        <v>1.050279399943696</v>
       </c>
       <c r="K3">
-        <v>1.018767279132827</v>
+        <v>1.053943104619649</v>
       </c>
       <c r="L3">
-        <v>1.006299939086573</v>
+        <v>1.049650092139105</v>
       </c>
       <c r="M3">
-        <v>0.9784073863703893</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.057775674390161</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9938565220334011</v>
+        <v>1.03588229919163</v>
       </c>
       <c r="D4">
-        <v>1.012151659845614</v>
+        <v>1.048007517408099</v>
       </c>
       <c r="E4">
-        <v>1.000034536758869</v>
+        <v>1.044206547471788</v>
       </c>
       <c r="F4">
-        <v>0.9744568322745137</v>
+        <v>1.052659342264142</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040755036968787</v>
+        <v>1.062330476190802</v>
       </c>
       <c r="J4">
-        <v>1.013418694931376</v>
+        <v>1.05441063179223</v>
       </c>
       <c r="K4">
-        <v>1.022105604369972</v>
+        <v>1.05755910526951</v>
       </c>
       <c r="L4">
-        <v>1.010132544970226</v>
+        <v>1.053799181081589</v>
       </c>
       <c r="M4">
-        <v>0.9848736406696951</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.062161190036126</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9960273648352256</v>
+        <v>1.038065991123952</v>
       </c>
       <c r="D5">
-        <v>1.013763200422734</v>
+        <v>1.049726360245967</v>
       </c>
       <c r="E5">
-        <v>1.001857460795099</v>
+        <v>1.046149041234277</v>
       </c>
       <c r="F5">
-        <v>0.9773850764128217</v>
+        <v>1.054698661451932</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041503523245541</v>
+        <v>1.06318624607487</v>
       </c>
       <c r="J5">
-        <v>1.015075106150586</v>
+        <v>1.05611347381748</v>
       </c>
       <c r="K5">
-        <v>1.023477798123371</v>
+        <v>1.059049004664118</v>
       </c>
       <c r="L5">
-        <v>1.011709480639575</v>
+        <v>1.055509197563312</v>
       </c>
       <c r="M5">
-        <v>0.9875326576659171</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.063969681859407</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9963892823251541</v>
+        <v>1.038430285266523</v>
       </c>
       <c r="D6">
-        <v>1.014031887464719</v>
+        <v>1.050013123202576</v>
       </c>
       <c r="E6">
-        <v>1.002161446385448</v>
+        <v>1.046473112107761</v>
       </c>
       <c r="F6">
-        <v>0.9778731240800388</v>
+        <v>1.055038935542823</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041628061167505</v>
+        <v>1.063328798736373</v>
       </c>
       <c r="J6">
-        <v>1.015351143555293</v>
+        <v>1.056397458143702</v>
       </c>
       <c r="K6">
-        <v>1.023706422169314</v>
+        <v>1.059297442108681</v>
       </c>
       <c r="L6">
-        <v>1.011972310478879</v>
+        <v>1.055794367364742</v>
       </c>
       <c r="M6">
-        <v>0.987975766850411</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.064271334528274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9938857035340034</v>
+        <v>1.035911637364091</v>
       </c>
       <c r="D7">
-        <v>1.012173321839045</v>
+        <v>1.048030609047972</v>
       </c>
       <c r="E7">
-        <v>1.000059036433705</v>
+        <v>1.044232644086964</v>
       </c>
       <c r="F7">
-        <v>0.9744962050840612</v>
+        <v>1.05268673634872</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040765115134076</v>
+        <v>1.062341987740824</v>
       </c>
       <c r="J7">
-        <v>1.013440968948477</v>
+        <v>1.054433515851224</v>
       </c>
       <c r="K7">
-        <v>1.022124059750962</v>
+        <v>1.057579129940268</v>
       </c>
       <c r="L7">
-        <v>1.010153747764221</v>
+        <v>1.053822162296725</v>
       </c>
       <c r="M7">
-        <v>0.9849093979343522</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.062185490587923</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9830259080439887</v>
+        <v>1.025024476417736</v>
       </c>
       <c r="D8">
-        <v>1.004114668725154</v>
+        <v>1.039464296061823</v>
       </c>
       <c r="E8">
-        <v>0.9909509625170351</v>
+        <v>1.034550668141525</v>
       </c>
       <c r="F8">
-        <v>0.9598222394764506</v>
+        <v>1.042529308422689</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036985415799288</v>
+        <v>1.058045413820177</v>
       </c>
       <c r="J8">
-        <v>1.005138218031428</v>
+        <v>1.045930863211248</v>
       </c>
       <c r="K8">
-        <v>1.015239191192054</v>
+        <v>1.050134970670917</v>
       </c>
       <c r="L8">
-        <v>1.002254920196174</v>
+        <v>1.045282115208628</v>
       </c>
       <c r="M8">
-        <v>0.9715754248015257</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.053162435208773</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9621473588044644</v>
+        <v>1.004280722703788</v>
       </c>
       <c r="D9">
-        <v>0.9886458421071529</v>
+        <v>1.023164417687097</v>
       </c>
       <c r="E9">
-        <v>0.9734946785554484</v>
+        <v>1.016120069755739</v>
       </c>
       <c r="F9">
-        <v>0.9314521963274133</v>
+        <v>1.023222607011262</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0295805067789</v>
+        <v>1.049742526480297</v>
       </c>
       <c r="J9">
-        <v>0.9891114396320538</v>
+        <v>1.029683217962452</v>
       </c>
       <c r="K9">
-        <v>1.001925858484648</v>
+        <v>1.035892524437492</v>
       </c>
       <c r="L9">
-        <v>0.9870329406810763</v>
+        <v>1.028956914137153</v>
       </c>
       <c r="M9">
-        <v>0.94576478071875</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.035949823495623</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9467607029829795</v>
+        <v>0.9891732271749977</v>
       </c>
       <c r="D10">
-        <v>0.97727586562116</v>
+        <v>1.011318231765039</v>
       </c>
       <c r="E10">
-        <v>0.960678042304789</v>
+        <v>1.002715941394024</v>
       </c>
       <c r="F10">
-        <v>0.9103638688279762</v>
+        <v>1.009201316076819</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024033602068658</v>
+        <v>1.043620693347142</v>
       </c>
       <c r="J10">
-        <v>0.9772583221063444</v>
+        <v>1.01782308691106</v>
       </c>
       <c r="K10">
-        <v>0.9920679012249036</v>
+        <v>1.025486095428598</v>
       </c>
       <c r="L10">
-        <v>0.9757955141203344</v>
+        <v>1.017036331217959</v>
       </c>
       <c r="M10">
-        <v>0.9265649304698211</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.023406401780126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9396651715127495</v>
+        <v>0.9822654971797521</v>
       </c>
       <c r="D11">
-        <v>0.9720433077230305</v>
+        <v>1.005910250845922</v>
       </c>
       <c r="E11">
-        <v>0.954781952611056</v>
+        <v>0.9965934555418895</v>
       </c>
       <c r="F11">
-        <v>0.9005743093258418</v>
+        <v>1.002801736025459</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021455610196418</v>
+        <v>1.040805003338488</v>
       </c>
       <c r="J11">
-        <v>0.9717827259029717</v>
+        <v>1.012395126784461</v>
       </c>
       <c r="K11">
-        <v>0.9875124325531287</v>
+        <v>1.020721562614138</v>
       </c>
       <c r="L11">
-        <v>0.9706101490687321</v>
+        <v>1.011579901513644</v>
       </c>
       <c r="M11">
-        <v>0.9176509992039644</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.017671008422969</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9369554225189155</v>
+        <v>0.979638222707878</v>
       </c>
       <c r="D12">
-        <v>0.9700469842006503</v>
+        <v>1.003854935460806</v>
       </c>
       <c r="E12">
-        <v>0.9525327006764863</v>
+        <v>0.9942659976402399</v>
       </c>
       <c r="F12">
-        <v>0.8968235942174073</v>
+        <v>1.000369666149753</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020468205104722</v>
+        <v>1.039731727392437</v>
       </c>
       <c r="J12">
-        <v>0.9696902217885036</v>
+        <v>1.010330047364669</v>
       </c>
       <c r="K12">
-        <v>0.9857714504896629</v>
+        <v>1.018908651784756</v>
       </c>
       <c r="L12">
-        <v>0.9686295299805499</v>
+        <v>1.009503882807458</v>
       </c>
       <c r="M12">
-        <v>0.9142358683590858</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.015489787364882</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9375401958006163</v>
+        <v>0.9802046772684708</v>
       </c>
       <c r="D13">
-        <v>0.9704777028834837</v>
+        <v>1.004297998193467</v>
       </c>
       <c r="E13">
-        <v>0.9530179821615397</v>
+        <v>0.9947677544240127</v>
       </c>
       <c r="F13">
-        <v>0.8976336031644553</v>
+        <v>1.000893942572785</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020681418229651</v>
+        <v>1.039963235754438</v>
       </c>
       <c r="J13">
-        <v>0.9701418541032615</v>
+        <v>1.01077531502961</v>
       </c>
       <c r="K13">
-        <v>0.9861472150851691</v>
+        <v>1.019299557136729</v>
       </c>
       <c r="L13">
-        <v>0.9690569681017953</v>
+        <v>1.009951513807444</v>
       </c>
       <c r="M13">
-        <v>0.9149733947824402</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.015960059649732</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9394427550501622</v>
+        <v>0.9820496201946723</v>
       </c>
       <c r="D14">
-        <v>0.9718794073169912</v>
+        <v>1.005741337444922</v>
       </c>
       <c r="E14">
-        <v>0.9545972827184923</v>
+        <v>0.9964021890995265</v>
       </c>
       <c r="F14">
-        <v>0.9002667113592157</v>
+        <v>1.002601858048966</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02137462136606</v>
+        <v>1.040716861785512</v>
       </c>
       <c r="J14">
-        <v>0.9716110010974762</v>
+        <v>1.012225455680337</v>
       </c>
       <c r="K14">
-        <v>0.9873695573134025</v>
+        <v>1.020572614623405</v>
       </c>
       <c r="L14">
-        <v>0.9704475859818972</v>
+        <v>1.011409333717193</v>
       </c>
       <c r="M14">
-        <v>0.9173709189315732</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.017491778068006</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9406048537182181</v>
+        <v>0.9831779987753749</v>
       </c>
       <c r="D15">
-        <v>0.9727358486071571</v>
+        <v>1.006624304032105</v>
       </c>
       <c r="E15">
-        <v>0.9555622606671054</v>
+        <v>0.9974019777775083</v>
       </c>
       <c r="F15">
-        <v>0.9018733660443137</v>
+        <v>1.003646690410194</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021797662145207</v>
+        <v>1.041177478455963</v>
       </c>
       <c r="J15">
-        <v>0.9725081855748355</v>
+        <v>1.013112294169559</v>
       </c>
       <c r="K15">
-        <v>0.9881160123866767</v>
+        <v>1.021351128175709</v>
       </c>
       <c r="L15">
-        <v>0.9712969446470059</v>
+        <v>1.012300854750844</v>
       </c>
       <c r="M15">
-        <v>0.9188338481600048</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.018428614452792</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9472217526950401</v>
+        <v>0.9896234318791896</v>
       </c>
       <c r="D16">
-        <v>0.9776161121163118</v>
+        <v>1.011670889068965</v>
       </c>
       <c r="E16">
-        <v>0.9610614716578048</v>
+        <v>1.003115116185809</v>
       </c>
       <c r="F16">
-        <v>0.9109984533633464</v>
+        <v>1.00961865619115</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024200712419443</v>
+        <v>1.043803872345323</v>
       </c>
       <c r="J16">
-        <v>0.9776139194584801</v>
+        <v>1.018176756261187</v>
       </c>
       <c r="K16">
-        <v>0.9923637218199512</v>
+        <v>1.025796503083058</v>
       </c>
       <c r="L16">
-        <v>0.9761323902815148</v>
+        <v>1.017391840009429</v>
       </c>
       <c r="M16">
-        <v>0.9271427533193991</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.023780213624722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9512505725026833</v>
+        <v>0.9935642471277886</v>
       </c>
       <c r="D17">
-        <v>0.9805905400278233</v>
+        <v>1.014758821382219</v>
       </c>
       <c r="E17">
-        <v>0.9644136410347858</v>
+        <v>1.006609985203413</v>
       </c>
       <c r="F17">
-        <v>0.9165362336513293</v>
+        <v>1.013273106384167</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0256587588701</v>
+        <v>1.045405464857464</v>
       </c>
       <c r="J17">
-        <v>0.9807201966618373</v>
+        <v>1.02127200829092</v>
       </c>
       <c r="K17">
-        <v>0.9949476668517849</v>
+        <v>1.028512930678121</v>
       </c>
       <c r="L17">
-        <v>0.9790757887062469</v>
+        <v>1.020503101616386</v>
       </c>
       <c r="M17">
-        <v>0.9321851044165186</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.027052344685798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9535594389298848</v>
+        <v>0.9958280223338223</v>
       </c>
       <c r="D18">
-        <v>0.9822961147686108</v>
+        <v>1.016533443541809</v>
       </c>
       <c r="E18">
-        <v>0.966336033149926</v>
+        <v>1.008618172909483</v>
       </c>
       <c r="F18">
-        <v>0.9197040358737087</v>
+        <v>1.015373439409937</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026492476699658</v>
+        <v>1.04632393495544</v>
       </c>
       <c r="J18">
-        <v>0.9824994765835259</v>
+        <v>1.023049573791909</v>
       </c>
       <c r="K18">
-        <v>0.9964276018247068</v>
+        <v>1.030072763060377</v>
       </c>
       <c r="L18">
-        <v>0.9807623031646839</v>
+        <v>1.022289785342383</v>
       </c>
       <c r="M18">
-        <v>0.9350693893276121</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.028931980730446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9543399822113441</v>
+        <v>0.9965941811496641</v>
       </c>
       <c r="D19">
-        <v>0.982872861630429</v>
+        <v>1.017134177117511</v>
       </c>
       <c r="E19">
-        <v>0.9669861373074404</v>
+        <v>1.009297923578395</v>
       </c>
       <c r="F19">
-        <v>0.9207740264339157</v>
+        <v>1.016084456253131</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026774005381887</v>
+        <v>1.046634517667561</v>
       </c>
       <c r="J19">
-        <v>0.9831008341846221</v>
+        <v>1.023651092867167</v>
       </c>
       <c r="K19">
-        <v>0.9969277581982826</v>
+        <v>1.030600570685199</v>
       </c>
       <c r="L19">
-        <v>0.9813323956677066</v>
+        <v>1.022894376784061</v>
       </c>
       <c r="M19">
-        <v>0.936043590086837</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.02956812251156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9508226267532531</v>
+        <v>0.993145081325672</v>
       </c>
       <c r="D20">
-        <v>0.9802744899064929</v>
+        <v>1.014430289815697</v>
       </c>
       <c r="E20">
-        <v>0.9640574319993861</v>
+        <v>1.006238190600378</v>
       </c>
       <c r="F20">
-        <v>0.915948626697822</v>
+        <v>1.012884288392054</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025504077465141</v>
+        <v>1.045235271933069</v>
       </c>
       <c r="J20">
-        <v>0.9803903367234507</v>
+        <v>1.020942830207743</v>
       </c>
       <c r="K20">
-        <v>0.9946732891512169</v>
+        <v>1.02822405862044</v>
       </c>
       <c r="L20">
-        <v>0.9787631690750542</v>
+        <v>1.020172228741299</v>
       </c>
       <c r="M20">
-        <v>0.9316500771810129</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.026704304350721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9388846285373654</v>
+        <v>0.9815080835189194</v>
       </c>
       <c r="D21">
-        <v>0.9714681524238348</v>
+        <v>1.005317636733737</v>
       </c>
       <c r="E21">
-        <v>0.9541339166844701</v>
+        <v>0.9959224083464329</v>
       </c>
       <c r="F21">
-        <v>0.8994946286315514</v>
+        <v>1.002100487422477</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021171344172676</v>
+        <v>1.040495717460397</v>
       </c>
       <c r="J21">
-        <v>0.9711800566469889</v>
+        <v>1.011799819027532</v>
       </c>
       <c r="K21">
-        <v>0.9870110098015961</v>
+        <v>1.020198960360638</v>
       </c>
       <c r="L21">
-        <v>0.9700396489014577</v>
+        <v>1.010981445938447</v>
       </c>
       <c r="M21">
-        <v>0.9166679092782976</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.0170421743986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9309436630821059</v>
+        <v>0.9738319636201451</v>
       </c>
       <c r="D22">
-        <v>0.9656220985647309</v>
+        <v>0.9993158878595163</v>
       </c>
       <c r="E22">
-        <v>0.9475474641121125</v>
+        <v>0.9891247192878345</v>
       </c>
       <c r="F22">
-        <v>0.8884766643063704</v>
+        <v>0.9949986479641131</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018272398570452</v>
+        <v>1.037355584753473</v>
       </c>
       <c r="J22">
-        <v>0.9650452984808074</v>
+        <v>1.005765268602193</v>
       </c>
       <c r="K22">
-        <v>0.9819067994679508</v>
+        <v>1.014900909337886</v>
       </c>
       <c r="L22">
-        <v>0.9642349022280833</v>
+        <v>1.004914740614897</v>
       </c>
       <c r="M22">
-        <v>0.9066362896936446</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010669837993944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9351981372187157</v>
+        <v>0.9779377396795352</v>
       </c>
       <c r="D23">
-        <v>0.9687529629210716</v>
+        <v>1.002525120871988</v>
       </c>
       <c r="E23">
-        <v>0.951074777541975</v>
+        <v>0.9927599224947236</v>
       </c>
       <c r="F23">
-        <v>0.8943874606045141</v>
+        <v>0.9987961025612767</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019827072691727</v>
+        <v>1.039036409368507</v>
       </c>
       <c r="J23">
-        <v>0.9683328314610044</v>
+        <v>1.008993285938341</v>
       </c>
       <c r="K23">
-        <v>0.9846420777681124</v>
+        <v>1.017735064133851</v>
       </c>
       <c r="L23">
-        <v>0.9673450073992036</v>
+        <v>1.008160011624392</v>
       </c>
       <c r="M23">
-        <v>0.9120177671214359</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014078081231722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9510161232850011</v>
+        <v>0.993334591487401</v>
       </c>
       <c r="D24">
-        <v>0.9804173896198403</v>
+        <v>1.01457882068618</v>
       </c>
       <c r="E24">
-        <v>0.9642184885879289</v>
+        <v>1.006406281843452</v>
       </c>
       <c r="F24">
-        <v>0.9162143323453728</v>
+        <v>1.013060074648339</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025574022805936</v>
+        <v>1.045312223149703</v>
       </c>
       <c r="J24">
-        <v>0.9805394863280827</v>
+        <v>1.021091657291014</v>
       </c>
       <c r="K24">
-        <v>0.9947973523679895</v>
+        <v>1.028354663214974</v>
       </c>
       <c r="L24">
-        <v>0.9789045216467723</v>
+        <v>1.020321822306063</v>
       </c>
       <c r="M24">
-        <v>0.9318920075695776</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.026861657857569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9677789262067695</v>
+        <v>1.009849993331538</v>
       </c>
       <c r="D25">
-        <v>0.9928142371296287</v>
+        <v>1.02753716138822</v>
       </c>
       <c r="E25">
-        <v>0.9781959271340179</v>
+        <v>1.021065702710495</v>
       </c>
       <c r="F25">
-        <v>0.9391289657297146</v>
+        <v>1.028399966197984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031593278177035</v>
+        <v>1.051984691515113</v>
       </c>
       <c r="J25">
-        <v>0.9934415365970011</v>
+        <v>1.034050352950918</v>
       </c>
       <c r="K25">
-        <v>1.005525136513093</v>
+        <v>1.039722525559405</v>
       </c>
       <c r="L25">
-        <v>0.9911424243459975</v>
+        <v>1.03334557103298</v>
       </c>
       <c r="M25">
-        <v>0.952751938290941</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.040572844521962</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022123271942745</v>
+        <v>1.006565491482257</v>
       </c>
       <c r="D2">
-        <v>1.03718267541463</v>
+        <v>1.027279350514205</v>
       </c>
       <c r="E2">
-        <v>1.031971506218476</v>
+        <v>1.011326604346116</v>
       </c>
       <c r="F2">
-        <v>1.039825383553838</v>
+        <v>1.03180397660367</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056892689777787</v>
+        <v>1.051604929878317</v>
       </c>
       <c r="J2">
-        <v>1.043661831017678</v>
+        <v>1.028551587584002</v>
       </c>
       <c r="K2">
-        <v>1.048147205840802</v>
+        <v>1.03837128522472</v>
       </c>
       <c r="L2">
-        <v>1.043002696080758</v>
+        <v>1.022630365063167</v>
       </c>
       <c r="M2">
-        <v>1.050756428057902</v>
+        <v>1.04283732341617</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030589263139595</v>
+        <v>1.01425113201323</v>
       </c>
       <c r="D3">
-        <v>1.043842065869329</v>
+        <v>1.033139393525659</v>
       </c>
       <c r="E3">
-        <v>1.039498842385101</v>
+        <v>1.017772259551202</v>
       </c>
       <c r="F3">
-        <v>1.047719022400376</v>
+        <v>1.038280765943552</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06024755522957</v>
+        <v>1.054247216675504</v>
       </c>
       <c r="J3">
-        <v>1.050279399943696</v>
+        <v>1.03436069475083</v>
       </c>
       <c r="K3">
-        <v>1.053943104619649</v>
+        <v>1.043365106319588</v>
       </c>
       <c r="L3">
-        <v>1.049650092139105</v>
+        <v>1.02818268100742</v>
       </c>
       <c r="M3">
-        <v>1.057775674390161</v>
+        <v>1.048446190862498</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03588229919163</v>
+        <v>1.019073834302248</v>
       </c>
       <c r="D4">
-        <v>1.048007517408099</v>
+        <v>1.036818639114789</v>
       </c>
       <c r="E4">
-        <v>1.044206547471788</v>
+        <v>1.021822326013426</v>
       </c>
       <c r="F4">
-        <v>1.052659342264142</v>
+        <v>1.042350204469065</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062330476190802</v>
+        <v>1.055890423303514</v>
       </c>
       <c r="J4">
-        <v>1.05441063179223</v>
+        <v>1.038001901446294</v>
       </c>
       <c r="K4">
-        <v>1.05755910526951</v>
+        <v>1.046492110848377</v>
       </c>
       <c r="L4">
-        <v>1.053799181081589</v>
+        <v>1.031664320126493</v>
       </c>
       <c r="M4">
-        <v>1.062161190036126</v>
+        <v>1.051963017790228</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038065991123952</v>
+        <v>1.021067334570896</v>
       </c>
       <c r="D5">
-        <v>1.049726360245967</v>
+        <v>1.038339864059146</v>
       </c>
       <c r="E5">
-        <v>1.046149041234277</v>
+        <v>1.023497662010059</v>
       </c>
       <c r="F5">
-        <v>1.054698661451932</v>
+        <v>1.044033481894953</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06318624607487</v>
+        <v>1.056566026196245</v>
       </c>
       <c r="J5">
-        <v>1.05611347381748</v>
+        <v>1.03950599317736</v>
       </c>
       <c r="K5">
-        <v>1.059049004664118</v>
+        <v>1.04778300757906</v>
       </c>
       <c r="L5">
-        <v>1.055509197563312</v>
+        <v>1.033102822974903</v>
       </c>
       <c r="M5">
-        <v>1.063969681859407</v>
+        <v>1.053415970025408</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038430285266523</v>
+        <v>1.021400116679247</v>
       </c>
       <c r="D6">
-        <v>1.050013123202576</v>
+        <v>1.038593826585142</v>
       </c>
       <c r="E6">
-        <v>1.046473112107761</v>
+        <v>1.02377740033995</v>
       </c>
       <c r="F6">
-        <v>1.055038935542823</v>
+        <v>1.044314541278689</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063328798736373</v>
+        <v>1.056678591475074</v>
       </c>
       <c r="J6">
-        <v>1.056397458143702</v>
+        <v>1.039757014037915</v>
       </c>
       <c r="K6">
-        <v>1.059297442108681</v>
+        <v>1.047998400543575</v>
       </c>
       <c r="L6">
-        <v>1.055794367364742</v>
+        <v>1.033342916407938</v>
       </c>
       <c r="M6">
-        <v>1.064271334528274</v>
+        <v>1.053658469234799</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035911637364091</v>
+        <v>1.019100602427236</v>
       </c>
       <c r="D7">
-        <v>1.048030609047972</v>
+        <v>1.036839064314653</v>
       </c>
       <c r="E7">
-        <v>1.044232644086964</v>
+        <v>1.02184481725454</v>
       </c>
       <c r="F7">
-        <v>1.05268673634872</v>
+        <v>1.042372802641296</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062341987740824</v>
+        <v>1.055899509557126</v>
       </c>
       <c r="J7">
-        <v>1.054433515851224</v>
+        <v>1.038022102104577</v>
       </c>
       <c r="K7">
-        <v>1.057579129940268</v>
+        <v>1.046509451367556</v>
       </c>
       <c r="L7">
-        <v>1.053822162296725</v>
+        <v>1.031683638622116</v>
       </c>
       <c r="M7">
-        <v>1.062185490587923</v>
+        <v>1.051982530717978</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025024476417736</v>
+        <v>1.009195325244491</v>
       </c>
       <c r="D8">
-        <v>1.039464296061823</v>
+        <v>1.029283989787765</v>
       </c>
       <c r="E8">
-        <v>1.034550668141525</v>
+        <v>1.0135309335426</v>
       </c>
       <c r="F8">
-        <v>1.042529308422689</v>
+        <v>1.034018976851052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058045413820177</v>
+        <v>1.052512135615613</v>
       </c>
       <c r="J8">
-        <v>1.045930863211248</v>
+        <v>1.030540112072713</v>
       </c>
       <c r="K8">
-        <v>1.050134970670917</v>
+        <v>1.040081379522115</v>
       </c>
       <c r="L8">
-        <v>1.045282115208628</v>
+        <v>1.024530686737056</v>
       </c>
       <c r="M8">
-        <v>1.053162435208773</v>
+        <v>1.044757043097815</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004280722703788</v>
+        <v>0.9904865643149984</v>
       </c>
       <c r="D9">
-        <v>1.023164417687097</v>
+        <v>1.015037611745986</v>
       </c>
       <c r="E9">
-        <v>1.016120069755739</v>
+        <v>0.9978773512952854</v>
       </c>
       <c r="F9">
-        <v>1.023222607011262</v>
+        <v>1.018289989225242</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049742526480297</v>
+        <v>1.045997389511286</v>
       </c>
       <c r="J9">
-        <v>1.029683217962452</v>
+        <v>1.016379797912659</v>
       </c>
       <c r="K9">
-        <v>1.035892524437492</v>
+        <v>1.027891336152821</v>
       </c>
       <c r="L9">
-        <v>1.028956914137153</v>
+        <v>1.011004961127754</v>
       </c>
       <c r="M9">
-        <v>1.035949823495623</v>
+        <v>1.031093133590373</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9891732271749977</v>
+        <v>0.9770085619297735</v>
       </c>
       <c r="D10">
-        <v>1.011318231765039</v>
+        <v>1.004800404179985</v>
       </c>
       <c r="E10">
-        <v>1.002715941394024</v>
+        <v>0.9866422218064907</v>
       </c>
       <c r="F10">
-        <v>1.009201316076819</v>
+        <v>1.007002721973882</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043620693347142</v>
+        <v>1.041230091580448</v>
       </c>
       <c r="J10">
-        <v>1.01782308691106</v>
+        <v>1.006165036111513</v>
       </c>
       <c r="K10">
-        <v>1.025486095428598</v>
+        <v>1.019083523408415</v>
       </c>
       <c r="L10">
-        <v>1.017036331217959</v>
+        <v>1.00125691736508</v>
       </c>
       <c r="M10">
-        <v>1.023406401780126</v>
+        <v>1.02124668081598</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9822654971797521</v>
+        <v>0.9708910444974077</v>
       </c>
       <c r="D11">
-        <v>1.005910250845922</v>
+        <v>1.00016264782724</v>
       </c>
       <c r="E11">
-        <v>0.9965934555418895</v>
+        <v>0.9815548092049613</v>
       </c>
       <c r="F11">
-        <v>1.002801736025459</v>
+        <v>1.001892718923898</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040805003338488</v>
+        <v>1.039050133268362</v>
       </c>
       <c r="J11">
-        <v>1.012395126784461</v>
+        <v>1.001527012280515</v>
       </c>
       <c r="K11">
-        <v>1.020721562614138</v>
+        <v>1.015081497500167</v>
       </c>
       <c r="L11">
-        <v>1.011579901513644</v>
+        <v>0.9968331644944508</v>
       </c>
       <c r="M11">
-        <v>1.017671008422969</v>
+        <v>1.016779029391546</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.979638222707878</v>
+        <v>0.968572169242172</v>
       </c>
       <c r="D12">
-        <v>1.003854935460806</v>
+        <v>0.998406258746792</v>
       </c>
       <c r="E12">
-        <v>0.9942659976402399</v>
+        <v>0.979628424956807</v>
       </c>
       <c r="F12">
-        <v>1.000369666149753</v>
+        <v>0.9999579866398191</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039731727392437</v>
+        <v>1.038221525176689</v>
       </c>
       <c r="J12">
-        <v>1.010330047364669</v>
+        <v>0.9997688491841376</v>
       </c>
       <c r="K12">
-        <v>1.018908651784756</v>
+        <v>1.013564056152227</v>
       </c>
       <c r="L12">
-        <v>1.009503882807458</v>
+        <v>0.9951566034502481</v>
       </c>
       <c r="M12">
-        <v>1.015489787364882</v>
+        <v>1.015085991603572</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9802046772684708</v>
+        <v>0.9690717578312096</v>
       </c>
       <c r="D13">
-        <v>1.004297998193467</v>
+        <v>0.9987845873963246</v>
       </c>
       <c r="E13">
-        <v>0.9947677544240127</v>
+        <v>0.9800433586031936</v>
       </c>
       <c r="F13">
-        <v>1.000893942572785</v>
+        <v>1.00037470819803</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039963235754438</v>
+        <v>1.038400144761464</v>
       </c>
       <c r="J13">
-        <v>1.01077531502961</v>
+        <v>1.00014763726118</v>
       </c>
       <c r="K13">
-        <v>1.019299557136729</v>
+        <v>1.013890997578667</v>
       </c>
       <c r="L13">
-        <v>1.009951513807444</v>
+        <v>0.9955177933275209</v>
       </c>
       <c r="M13">
-        <v>1.015960059649732</v>
+        <v>1.015450723114095</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9820496201946723</v>
+        <v>0.9707003421368173</v>
       </c>
       <c r="D14">
-        <v>1.005741337444922</v>
+        <v>1.000018170367395</v>
       </c>
       <c r="E14">
-        <v>0.9964021890995265</v>
+        <v>0.9813963426532818</v>
       </c>
       <c r="F14">
-        <v>1.002601858048966</v>
+        <v>1.001733561149835</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040716861785512</v>
+        <v>1.038982034665642</v>
       </c>
       <c r="J14">
-        <v>1.012225455680337</v>
+        <v>1.001382423452949</v>
       </c>
       <c r="K14">
-        <v>1.020572614623405</v>
+        <v>1.014956712441141</v>
       </c>
       <c r="L14">
-        <v>1.011409333717193</v>
+        <v>0.9966952787176052</v>
       </c>
       <c r="M14">
-        <v>1.017491778068006</v>
+        <v>1.016639784979466</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9831779987753749</v>
+        <v>0.9716974594725077</v>
       </c>
       <c r="D15">
-        <v>1.006624304032105</v>
+        <v>1.00077365909483</v>
       </c>
       <c r="E15">
-        <v>0.9974019777775083</v>
+        <v>0.9822249935200947</v>
       </c>
       <c r="F15">
-        <v>1.003646690410194</v>
+        <v>1.002565835247432</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041177478455963</v>
+        <v>1.039338007038553</v>
       </c>
       <c r="J15">
-        <v>1.013112294169559</v>
+        <v>1.002138425915046</v>
       </c>
       <c r="K15">
-        <v>1.021351128175709</v>
+        <v>1.015609153516775</v>
       </c>
       <c r="L15">
-        <v>1.012300854750844</v>
+        <v>0.997416248822355</v>
       </c>
       <c r="M15">
-        <v>1.018428614452792</v>
+        <v>1.017367865849326</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9896234318791896</v>
+        <v>0.9774082802079601</v>
       </c>
       <c r="D16">
-        <v>1.011670889068965</v>
+        <v>1.005103637396255</v>
       </c>
       <c r="E16">
-        <v>1.003115116185809</v>
+        <v>0.9869748998564074</v>
       </c>
       <c r="F16">
-        <v>1.00961865619115</v>
+        <v>1.007336902642511</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043803872345323</v>
+        <v>1.041372207859041</v>
       </c>
       <c r="J16">
-        <v>1.018176756261187</v>
+        <v>1.006468062430759</v>
       </c>
       <c r="K16">
-        <v>1.025796503083058</v>
+        <v>1.019344942699026</v>
       </c>
       <c r="L16">
-        <v>1.017391840009429</v>
+        <v>1.001545994813002</v>
       </c>
       <c r="M16">
-        <v>1.023780213624722</v>
+        <v>1.021538646360552</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9935642471277886</v>
+        <v>0.9809123385820937</v>
       </c>
       <c r="D17">
-        <v>1.014758821382219</v>
+        <v>1.007762895442362</v>
       </c>
       <c r="E17">
-        <v>1.006609985203413</v>
+        <v>0.9898926463501029</v>
       </c>
       <c r="F17">
-        <v>1.013273106384167</v>
+        <v>1.010267948393244</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045405464857464</v>
+        <v>1.04261624229171</v>
       </c>
       <c r="J17">
-        <v>1.02127200829092</v>
+        <v>1.009124317910978</v>
       </c>
       <c r="K17">
-        <v>1.028512930678121</v>
+        <v>1.021636168414765</v>
       </c>
       <c r="L17">
-        <v>1.020503101616386</v>
+        <v>1.004080245778948</v>
       </c>
       <c r="M17">
-        <v>1.027052344685798</v>
+        <v>1.024098307039849</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9958280223338223</v>
+        <v>0.9829293582695978</v>
       </c>
       <c r="D18">
-        <v>1.016533443541809</v>
+        <v>1.009294435356221</v>
       </c>
       <c r="E18">
-        <v>1.008618172909483</v>
+        <v>0.9915732900058807</v>
       </c>
       <c r="F18">
-        <v>1.015373439409937</v>
+        <v>1.011956344415568</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04632393495544</v>
+        <v>1.043330815334252</v>
       </c>
       <c r="J18">
-        <v>1.023049573791909</v>
+        <v>1.01065315607646</v>
       </c>
       <c r="K18">
-        <v>1.030072763060377</v>
+        <v>1.022954640425656</v>
       </c>
       <c r="L18">
-        <v>1.022289785342383</v>
+        <v>1.005539082240364</v>
       </c>
       <c r="M18">
-        <v>1.028931980730446</v>
+        <v>1.025571838642269</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9965941811496641</v>
+        <v>0.9836126779244353</v>
       </c>
       <c r="D19">
-        <v>1.017134177117511</v>
+        <v>1.009813415654803</v>
       </c>
       <c r="E19">
-        <v>1.009297923578395</v>
+        <v>0.9921428373227231</v>
       </c>
       <c r="F19">
-        <v>1.016084456253131</v>
+        <v>1.012528533024995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046634517667561</v>
+        <v>1.043572633962847</v>
       </c>
       <c r="J19">
-        <v>1.023651092867167</v>
+        <v>1.011171058788518</v>
       </c>
       <c r="K19">
-        <v>1.030600570685199</v>
+        <v>1.023401233210639</v>
       </c>
       <c r="L19">
-        <v>1.022894376784061</v>
+        <v>1.006033308059286</v>
       </c>
       <c r="M19">
-        <v>1.02956812251156</v>
+        <v>1.026071053163428</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.993145081325672</v>
+        <v>0.9805391912832081</v>
       </c>
       <c r="D20">
-        <v>1.014430289815697</v>
+        <v>1.007479625320552</v>
       </c>
       <c r="E20">
-        <v>1.006238190600378</v>
+        <v>0.9895818176917229</v>
       </c>
       <c r="F20">
-        <v>1.012884288392054</v>
+        <v>1.009955693053821</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045235271933069</v>
+        <v>1.042483922405428</v>
       </c>
       <c r="J20">
-        <v>1.020942830207743</v>
+        <v>1.008841469410626</v>
       </c>
       <c r="K20">
-        <v>1.02822405862044</v>
+        <v>1.021392217322078</v>
       </c>
       <c r="L20">
-        <v>1.020172228741299</v>
+        <v>1.003810365836687</v>
       </c>
       <c r="M20">
-        <v>1.026704304350721</v>
+        <v>1.023825713753251</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9815080835189194</v>
+        <v>0.9702220871719057</v>
       </c>
       <c r="D21">
-        <v>1.005317636733737</v>
+        <v>0.9996558672530979</v>
       </c>
       <c r="E21">
-        <v>0.9959224083464329</v>
+        <v>0.9809989639051166</v>
       </c>
       <c r="F21">
-        <v>1.002100487422477</v>
+        <v>1.00133445256075</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040495717460397</v>
+        <v>1.038811216643399</v>
       </c>
       <c r="J21">
-        <v>1.011799819027532</v>
+        <v>1.001019813792848</v>
       </c>
       <c r="K21">
-        <v>1.020198960360638</v>
+        <v>1.014643762269332</v>
       </c>
       <c r="L21">
-        <v>1.010981445938447</v>
+        <v>0.9963494855670885</v>
       </c>
       <c r="M21">
-        <v>1.0170421743986</v>
+        <v>1.016290587356387</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9738319636201451</v>
+        <v>0.9634633717352687</v>
       </c>
       <c r="D22">
-        <v>0.9993158878595163</v>
+        <v>0.9945399114624897</v>
       </c>
       <c r="E22">
-        <v>0.9891247192878345</v>
+        <v>0.975388330764707</v>
       </c>
       <c r="F22">
-        <v>0.9949986479641131</v>
+        <v>0.9956999625099386</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037355584753473</v>
+        <v>1.03639194170363</v>
       </c>
       <c r="J22">
-        <v>1.005765268602193</v>
+        <v>0.9958953822415396</v>
       </c>
       <c r="K22">
-        <v>1.014900909337886</v>
+        <v>1.010220315364131</v>
       </c>
       <c r="L22">
-        <v>1.004914740614897</v>
+        <v>0.9914636411664859</v>
       </c>
       <c r="M22">
-        <v>1.010669837993944</v>
+        <v>1.011357088000101</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9779377396795352</v>
+        <v>0.9670736619289374</v>
       </c>
       <c r="D23">
-        <v>1.002525120871988</v>
+        <v>0.9972717206862536</v>
       </c>
       <c r="E23">
-        <v>0.9927599224947236</v>
+        <v>0.978384152989319</v>
       </c>
       <c r="F23">
-        <v>0.9987961025612767</v>
+        <v>0.9987083878547937</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039036409368507</v>
+        <v>1.03768543567518</v>
       </c>
       <c r="J23">
-        <v>1.008993285938341</v>
+        <v>0.9986326793882258</v>
       </c>
       <c r="K23">
-        <v>1.017735064133851</v>
+        <v>1.012583350090978</v>
       </c>
       <c r="L23">
-        <v>1.008160011624392</v>
+        <v>0.9940732764477632</v>
       </c>
       <c r="M23">
-        <v>1.014078081231722</v>
+        <v>1.013992069445539</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.993334591487401</v>
+        <v>0.9807078831078159</v>
       </c>
       <c r="D24">
-        <v>1.01457882068618</v>
+        <v>1.00760768312628</v>
       </c>
       <c r="E24">
-        <v>1.006406281843452</v>
+        <v>0.9897223331442376</v>
       </c>
       <c r="F24">
-        <v>1.013060074648339</v>
+        <v>1.010096853180487</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045312223149703</v>
+        <v>1.042543746107196</v>
       </c>
       <c r="J24">
-        <v>1.021091657291014</v>
+        <v>1.008969339627783</v>
       </c>
       <c r="K24">
-        <v>1.028354663214974</v>
+        <v>1.021502503630274</v>
       </c>
       <c r="L24">
-        <v>1.020321822306063</v>
+        <v>1.003932372544918</v>
       </c>
       <c r="M24">
-        <v>1.026861657857569</v>
+        <v>1.023948946895786</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009849993331538</v>
+        <v>0.9954873891593097</v>
       </c>
       <c r="D25">
-        <v>1.02753716138822</v>
+        <v>1.018841996489166</v>
       </c>
       <c r="E25">
-        <v>1.021065702710495</v>
+        <v>1.002055047389457</v>
       </c>
       <c r="F25">
-        <v>1.028399966197984</v>
+        <v>1.022487634352703</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051984691515113</v>
+        <v>1.047751764770825</v>
       </c>
       <c r="J25">
-        <v>1.034050352950918</v>
+        <v>1.020167580909836</v>
       </c>
       <c r="K25">
-        <v>1.039722525559405</v>
+        <v>1.031154690235151</v>
       </c>
       <c r="L25">
-        <v>1.03334557103298</v>
+        <v>1.014621544940456</v>
       </c>
       <c r="M25">
-        <v>1.040572844521962</v>
+        <v>1.034746607719536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006565491482257</v>
+        <v>1.049841917968287</v>
       </c>
       <c r="D2">
-        <v>1.027279350514205</v>
+        <v>1.053400617270445</v>
       </c>
       <c r="E2">
-        <v>1.011326604346116</v>
+        <v>1.046930530253106</v>
       </c>
       <c r="F2">
-        <v>1.03180397660367</v>
+        <v>1.062666392331433</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051604929878317</v>
+        <v>1.0435727354514</v>
       </c>
       <c r="J2">
-        <v>1.028551587584002</v>
+        <v>1.054878226620457</v>
       </c>
       <c r="K2">
-        <v>1.03837128522472</v>
+        <v>1.056146689430899</v>
       </c>
       <c r="L2">
-        <v>1.022630365063167</v>
+        <v>1.049694587561333</v>
       </c>
       <c r="M2">
-        <v>1.04283732341617</v>
+        <v>1.06538712101325</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01425113201323</v>
+        <v>1.051358347618561</v>
       </c>
       <c r="D3">
-        <v>1.033139393525659</v>
+        <v>1.054557327506738</v>
       </c>
       <c r="E3">
-        <v>1.017772259551202</v>
+        <v>1.048242175690228</v>
       </c>
       <c r="F3">
-        <v>1.038280765943552</v>
+        <v>1.063971957731935</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054247216675504</v>
+        <v>1.043978837764573</v>
       </c>
       <c r="J3">
-        <v>1.03436069475083</v>
+        <v>1.056041327173583</v>
       </c>
       <c r="K3">
-        <v>1.043365106319588</v>
+        <v>1.057115556701128</v>
       </c>
       <c r="L3">
-        <v>1.02818268100742</v>
+        <v>1.050816677690361</v>
       </c>
       <c r="M3">
-        <v>1.048446190862498</v>
+        <v>1.066506313909523</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019073834302248</v>
+        <v>1.052338173658039</v>
       </c>
       <c r="D4">
-        <v>1.036818639114789</v>
+        <v>1.055304362615863</v>
       </c>
       <c r="E4">
-        <v>1.021822326013426</v>
+        <v>1.049089793449873</v>
       </c>
       <c r="F4">
-        <v>1.042350204469065</v>
+        <v>1.06481555939605</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055890423303514</v>
+        <v>1.044239353842964</v>
       </c>
       <c r="J4">
-        <v>1.038001901446294</v>
+        <v>1.056792135404184</v>
       </c>
       <c r="K4">
-        <v>1.046492110848377</v>
+        <v>1.057740469206848</v>
       </c>
       <c r="L4">
-        <v>1.031664320126493</v>
+        <v>1.05154109995509</v>
       </c>
       <c r="M4">
-        <v>1.051963017790228</v>
+        <v>1.067228772077114</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021067334570896</v>
+        <v>1.052749763570394</v>
       </c>
       <c r="D5">
-        <v>1.038339864059146</v>
+        <v>1.055618077640462</v>
       </c>
       <c r="E5">
-        <v>1.023497662010059</v>
+        <v>1.049445873179391</v>
       </c>
       <c r="F5">
-        <v>1.044033481894953</v>
+        <v>1.065169930766175</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056566026196245</v>
+        <v>1.04434833609332</v>
       </c>
       <c r="J5">
-        <v>1.03950599317736</v>
+        <v>1.057107350766832</v>
       </c>
       <c r="K5">
-        <v>1.04778300757906</v>
+        <v>1.058002705792261</v>
       </c>
       <c r="L5">
-        <v>1.033102822974903</v>
+        <v>1.051845258430361</v>
       </c>
       <c r="M5">
-        <v>1.053415970025408</v>
+        <v>1.067532083104962</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021400116679247</v>
+        <v>1.052818852254557</v>
       </c>
       <c r="D6">
-        <v>1.038593826585142</v>
+        <v>1.05567073205791</v>
       </c>
       <c r="E6">
-        <v>1.02377740033995</v>
+        <v>1.049505645521732</v>
       </c>
       <c r="F6">
-        <v>1.044314541278689</v>
+        <v>1.065229415083847</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056678591475074</v>
+        <v>1.044366603165147</v>
       </c>
       <c r="J6">
-        <v>1.039757014037915</v>
+        <v>1.057160252083045</v>
       </c>
       <c r="K6">
-        <v>1.047998400543575</v>
+        <v>1.058046708646905</v>
       </c>
       <c r="L6">
-        <v>1.033342916407938</v>
+        <v>1.051896305336695</v>
       </c>
       <c r="M6">
-        <v>1.053658469234799</v>
+        <v>1.067582986436317</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019100602427236</v>
+        <v>1.052343674625897</v>
       </c>
       <c r="D7">
-        <v>1.036839064314653</v>
+        <v>1.055308555815779</v>
       </c>
       <c r="E7">
-        <v>1.02184481725454</v>
+        <v>1.049094552414469</v>
       </c>
       <c r="F7">
-        <v>1.042372802641296</v>
+        <v>1.064820295612509</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055899509557126</v>
+        <v>1.044240812183228</v>
       </c>
       <c r="J7">
-        <v>1.038022102104577</v>
+        <v>1.056796348988228</v>
       </c>
       <c r="K7">
-        <v>1.046509451367556</v>
+        <v>1.057743975092326</v>
       </c>
       <c r="L7">
-        <v>1.031683638622116</v>
+        <v>1.05154516565622</v>
       </c>
       <c r="M7">
-        <v>1.051982530717978</v>
+        <v>1.067232826540468</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009195325244491</v>
+        <v>1.050354697972817</v>
       </c>
       <c r="D8">
-        <v>1.029283989787765</v>
+        <v>1.053791832624423</v>
       </c>
       <c r="E8">
-        <v>1.0135309335426</v>
+        <v>1.047374039085284</v>
       </c>
       <c r="F8">
-        <v>1.034018976851052</v>
+        <v>1.06310786311509</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052512135615613</v>
+        <v>1.043710448735698</v>
       </c>
       <c r="J8">
-        <v>1.030540112072713</v>
+        <v>1.055271676980944</v>
       </c>
       <c r="K8">
-        <v>1.040081379522115</v>
+        <v>1.056474541392767</v>
       </c>
       <c r="L8">
-        <v>1.024530686737056</v>
+        <v>1.050074146931831</v>
       </c>
       <c r="M8">
-        <v>1.044757043097815</v>
+        <v>1.065765719556167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9904865643149984</v>
+        <v>1.046838767276416</v>
       </c>
       <c r="D9">
-        <v>1.015037611745986</v>
+        <v>1.051107979521698</v>
       </c>
       <c r="E9">
-        <v>0.9978773512952854</v>
+        <v>1.04433356105459</v>
       </c>
       <c r="F9">
-        <v>1.018289989225242</v>
+        <v>1.060081014239943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045997389511286</v>
+        <v>1.042758479484685</v>
       </c>
       <c r="J9">
-        <v>1.016379797912659</v>
+        <v>1.052571012620833</v>
       </c>
       <c r="K9">
-        <v>1.027891336152821</v>
+        <v>1.054222048159246</v>
       </c>
       <c r="L9">
-        <v>1.011004961127754</v>
+        <v>1.047469191202956</v>
       </c>
       <c r="M9">
-        <v>1.031093133590373</v>
+        <v>1.06316698715619</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9770085619297735</v>
+        <v>1.044486878235401</v>
       </c>
       <c r="D10">
-        <v>1.004800404179985</v>
+        <v>1.049310919235608</v>
       </c>
       <c r="E10">
-        <v>0.9866422218064907</v>
+        <v>1.042300359444692</v>
       </c>
       <c r="F10">
-        <v>1.007002721973882</v>
+        <v>1.058056511637484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041230091580448</v>
+        <v>1.042111995430485</v>
       </c>
       <c r="J10">
-        <v>1.006165036111513</v>
+        <v>1.050760813347251</v>
       </c>
       <c r="K10">
-        <v>1.019083523408415</v>
+        <v>1.052709623999339</v>
       </c>
       <c r="L10">
-        <v>1.00125691736508</v>
+        <v>1.045723597580538</v>
       </c>
       <c r="M10">
-        <v>1.02124668081598</v>
+        <v>1.061425112625559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9708910444974077</v>
+        <v>1.043466496473812</v>
       </c>
       <c r="D11">
-        <v>1.00016264782724</v>
+        <v>1.048530848934371</v>
       </c>
       <c r="E11">
-        <v>0.9815548092049613</v>
+        <v>1.041418406056197</v>
       </c>
       <c r="F11">
-        <v>1.001892718923898</v>
+        <v>1.057178238213671</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039050133268362</v>
+        <v>1.041829221596281</v>
       </c>
       <c r="J11">
-        <v>1.001527012280515</v>
+        <v>1.049974585501838</v>
       </c>
       <c r="K11">
-        <v>1.015081497500167</v>
+        <v>1.052052111809339</v>
       </c>
       <c r="L11">
-        <v>0.9968331644944508</v>
+        <v>1.044965538224853</v>
       </c>
       <c r="M11">
-        <v>1.016779029391546</v>
+        <v>1.060668566129912</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.968572169242172</v>
+        <v>1.043087171848374</v>
       </c>
       <c r="D12">
-        <v>0.998406258746792</v>
+        <v>1.048240800025716</v>
       </c>
       <c r="E12">
-        <v>0.979628424956807</v>
+        <v>1.041090567379339</v>
       </c>
       <c r="F12">
-        <v>0.9999579866398191</v>
+        <v>1.05685175382197</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038221525176689</v>
+        <v>1.041723757055159</v>
       </c>
       <c r="J12">
-        <v>0.9997688491841376</v>
+        <v>1.049682178191638</v>
       </c>
       <c r="K12">
-        <v>1.013564056152227</v>
+        <v>1.051807482955586</v>
       </c>
       <c r="L12">
-        <v>0.9951566034502481</v>
+        <v>1.044683623398943</v>
       </c>
       <c r="M12">
-        <v>1.015085991603572</v>
+        <v>1.060387198959075</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9690717578312096</v>
+        <v>1.043168552417708</v>
       </c>
       <c r="D13">
-        <v>0.9987845873963246</v>
+        <v>1.048303029994167</v>
       </c>
       <c r="E13">
-        <v>0.9800433586031936</v>
+        <v>1.04116090094864</v>
       </c>
       <c r="F13">
-        <v>1.00037470819803</v>
+        <v>1.056921797456787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038400144761464</v>
+        <v>1.041746399049078</v>
       </c>
       <c r="J13">
-        <v>1.00014763726118</v>
+        <v>1.049744917281751</v>
       </c>
       <c r="K13">
-        <v>1.013890997578667</v>
+        <v>1.051859974845115</v>
       </c>
       <c r="L13">
-        <v>0.9955177933275209</v>
+        <v>1.044744110477337</v>
       </c>
       <c r="M13">
-        <v>1.015450723114095</v>
+        <v>1.060447569204346</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9707003421368173</v>
+        <v>1.043435147747131</v>
       </c>
       <c r="D14">
-        <v>1.000018170367395</v>
+        <v>1.048506879475096</v>
       </c>
       <c r="E14">
-        <v>0.9813963426532818</v>
+        <v>1.041391311784635</v>
       </c>
       <c r="F14">
-        <v>1.001733561149835</v>
+        <v>1.057151256142727</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038982034665642</v>
+        <v>1.041820512647293</v>
       </c>
       <c r="J14">
-        <v>1.001382423452949</v>
+        <v>1.049950422554128</v>
       </c>
       <c r="K14">
-        <v>1.014956712441141</v>
+        <v>1.052031898894916</v>
       </c>
       <c r="L14">
-        <v>0.9966952787176052</v>
+        <v>1.044942241986386</v>
       </c>
       <c r="M14">
-        <v>1.016639784979466</v>
+        <v>1.060645315450163</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9716974594725077</v>
+        <v>1.043599364652964</v>
       </c>
       <c r="D15">
-        <v>1.00077365909483</v>
+        <v>1.048632438459045</v>
       </c>
       <c r="E15">
-        <v>0.9822249935200947</v>
+        <v>1.041533243238368</v>
       </c>
       <c r="F15">
-        <v>1.002565835247432</v>
+        <v>1.057292599285905</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039338007038553</v>
+        <v>1.041866119451921</v>
       </c>
       <c r="J15">
-        <v>1.002138425915046</v>
+        <v>1.050076992263248</v>
       </c>
       <c r="K15">
-        <v>1.015609153516775</v>
+        <v>1.052137773865267</v>
       </c>
       <c r="L15">
-        <v>0.997416248822355</v>
+        <v>1.045064272389438</v>
       </c>
       <c r="M15">
-        <v>1.017367865849326</v>
+        <v>1.060767106597331</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9774082802079601</v>
+        <v>1.044554554728185</v>
       </c>
       <c r="D16">
-        <v>1.005103637396255</v>
+        <v>1.049362648738496</v>
       </c>
       <c r="E16">
-        <v>0.9869748998564074</v>
+        <v>1.042358858245775</v>
       </c>
       <c r="F16">
-        <v>1.007336902642511</v>
+        <v>1.058114764419106</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041372207859041</v>
+        <v>1.042130702085243</v>
       </c>
       <c r="J16">
-        <v>1.006468062430759</v>
+        <v>1.050812941566493</v>
       </c>
       <c r="K16">
-        <v>1.019344942699026</v>
+        <v>1.052753205191828</v>
       </c>
       <c r="L16">
-        <v>1.001545994813002</v>
+        <v>1.045773860461812</v>
       </c>
       <c r="M16">
-        <v>1.021538646360552</v>
+        <v>1.061475273079571</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9809123385820937</v>
+        <v>1.045153178763843</v>
       </c>
       <c r="D17">
-        <v>1.007762895442362</v>
+        <v>1.049820169127762</v>
       </c>
       <c r="E17">
-        <v>0.9898926463501029</v>
+        <v>1.042876321165435</v>
       </c>
       <c r="F17">
-        <v>1.010267948393244</v>
+        <v>1.058630040390084</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04261624229171</v>
+        <v>1.042295904953317</v>
       </c>
       <c r="J17">
-        <v>1.009124317910978</v>
+        <v>1.051273935915162</v>
       </c>
       <c r="K17">
-        <v>1.021636168414765</v>
+        <v>1.053138542974237</v>
       </c>
       <c r="L17">
-        <v>1.004080245778948</v>
+        <v>1.046218371231635</v>
       </c>
       <c r="M17">
-        <v>1.024098307039849</v>
+        <v>1.061918866269384</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9829293582695978</v>
+        <v>1.045502153854807</v>
       </c>
       <c r="D18">
-        <v>1.009294435356221</v>
+        <v>1.050086847086184</v>
       </c>
       <c r="E18">
-        <v>0.9915732900058807</v>
+        <v>1.043177998135681</v>
       </c>
       <c r="F18">
-        <v>1.011956344415568</v>
+        <v>1.058930433350786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043330815334252</v>
+        <v>1.042391990971234</v>
       </c>
       <c r="J18">
-        <v>1.01065315607646</v>
+        <v>1.051542595051753</v>
       </c>
       <c r="K18">
-        <v>1.022954640425656</v>
+        <v>1.053363051322834</v>
       </c>
       <c r="L18">
-        <v>1.005539082240364</v>
+        <v>1.046477434453211</v>
       </c>
       <c r="M18">
-        <v>1.025571838642269</v>
+        <v>1.062177384847303</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9836126779244353</v>
+        <v>1.045621113021884</v>
       </c>
       <c r="D19">
-        <v>1.009813415654803</v>
+        <v>1.050177746016654</v>
       </c>
       <c r="E19">
-        <v>0.9921428373227231</v>
+        <v>1.043280836887256</v>
       </c>
       <c r="F19">
-        <v>1.012528533024995</v>
+        <v>1.059032832850917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043572633962847</v>
+        <v>1.042424707425087</v>
       </c>
       <c r="J19">
-        <v>1.011171058788518</v>
+        <v>1.051634161885123</v>
       </c>
       <c r="K19">
-        <v>1.023401233210639</v>
+        <v>1.053439560178995</v>
       </c>
       <c r="L19">
-        <v>1.006033308059286</v>
+        <v>1.046565732485558</v>
       </c>
       <c r="M19">
-        <v>1.026071053163428</v>
+        <v>1.06226549555885</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9805391912832081</v>
+        <v>1.045088972014914</v>
       </c>
       <c r="D20">
-        <v>1.007479625320552</v>
+        <v>1.049771100795816</v>
       </c>
       <c r="E20">
-        <v>0.9895818176917229</v>
+        <v>1.042820817898274</v>
       </c>
       <c r="F20">
-        <v>1.009955693053821</v>
+        <v>1.058574772627588</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042483922405428</v>
+        <v>1.042278208612338</v>
       </c>
       <c r="J20">
-        <v>1.008841469410626</v>
+        <v>1.051224499533824</v>
       </c>
       <c r="K20">
-        <v>1.021392217322078</v>
+        <v>1.05309722605104</v>
       </c>
       <c r="L20">
-        <v>1.003810365836687</v>
+        <v>1.046170701447976</v>
       </c>
       <c r="M20">
-        <v>1.023825713753251</v>
+        <v>1.061871295906621</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9702220871719057</v>
+        <v>1.043356650682585</v>
       </c>
       <c r="D21">
-        <v>0.9996558672530979</v>
+        <v>1.048446859104319</v>
       </c>
       <c r="E21">
-        <v>0.9809989639051166</v>
+        <v>1.041323468270875</v>
       </c>
       <c r="F21">
-        <v>1.00133445256075</v>
+        <v>1.057083693358386</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038811216643399</v>
+        <v>1.041798699925422</v>
       </c>
       <c r="J21">
-        <v>1.001019813792848</v>
+        <v>1.049889916566874</v>
       </c>
       <c r="K21">
-        <v>1.014643762269332</v>
+        <v>1.051981282621639</v>
       </c>
       <c r="L21">
-        <v>0.9963494855670885</v>
+        <v>1.044883906572894</v>
       </c>
       <c r="M21">
-        <v>1.016290587356387</v>
+        <v>1.060587093878604</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9634633717352687</v>
+        <v>1.04226567677385</v>
       </c>
       <c r="D22">
-        <v>0.9945399114624897</v>
+        <v>1.04761253988534</v>
       </c>
       <c r="E22">
-        <v>0.975388330764707</v>
+        <v>1.040380621955986</v>
       </c>
       <c r="F22">
-        <v>0.9956999625099386</v>
+        <v>1.056144716671083</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03639194170363</v>
+        <v>1.041494725996902</v>
       </c>
       <c r="J22">
-        <v>0.9958953822415396</v>
+        <v>1.049048682917633</v>
       </c>
       <c r="K22">
-        <v>1.010220315364131</v>
+        <v>1.05127733024006</v>
       </c>
       <c r="L22">
-        <v>0.9914636411664859</v>
+        <v>1.044072889768369</v>
       </c>
       <c r="M22">
-        <v>1.011357088000101</v>
+        <v>1.059777624810362</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9670736619289374</v>
+        <v>1.042844195888606</v>
       </c>
       <c r="D23">
-        <v>0.9972717206862536</v>
+        <v>1.04805499292112</v>
       </c>
       <c r="E23">
-        <v>0.978384152989319</v>
+        <v>1.040880577979997</v>
       </c>
       <c r="F23">
-        <v>0.9987083878547937</v>
+        <v>1.056642628093356</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03768543567518</v>
+        <v>1.04165610507359</v>
       </c>
       <c r="J23">
-        <v>0.9986326793882258</v>
+        <v>1.049494840808799</v>
       </c>
       <c r="K23">
-        <v>1.012583350090978</v>
+        <v>1.05165072996229</v>
       </c>
       <c r="L23">
-        <v>0.9940732764477632</v>
+        <v>1.044503012857238</v>
       </c>
       <c r="M23">
-        <v>1.013992069445539</v>
+        <v>1.060206935112736</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9807078831078159</v>
+        <v>1.045117984875067</v>
       </c>
       <c r="D24">
-        <v>1.00760768312628</v>
+        <v>1.049793273237734</v>
       </c>
       <c r="E24">
-        <v>0.9897223331442376</v>
+        <v>1.042845897900576</v>
       </c>
       <c r="F24">
-        <v>1.010096853180487</v>
+        <v>1.058599746241455</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042543746107196</v>
+        <v>1.042286205673922</v>
       </c>
       <c r="J24">
-        <v>1.008969339627783</v>
+        <v>1.051246838420802</v>
       </c>
       <c r="K24">
-        <v>1.021502503630274</v>
+        <v>1.053115896171094</v>
       </c>
       <c r="L24">
-        <v>1.003932372544918</v>
+        <v>1.046192242027788</v>
       </c>
       <c r="M24">
-        <v>1.023948946895786</v>
+        <v>1.061892791591591</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9954873891593097</v>
+        <v>1.047749083448768</v>
       </c>
       <c r="D25">
-        <v>1.018841996489166</v>
+        <v>1.051803176975658</v>
       </c>
       <c r="E25">
-        <v>1.002055047389457</v>
+        <v>1.045120666788838</v>
       </c>
       <c r="F25">
-        <v>1.022487634352703</v>
+        <v>1.060864666435096</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047751764770825</v>
+        <v>1.043006662639419</v>
       </c>
       <c r="J25">
-        <v>1.020167580909836</v>
+        <v>1.053270893250965</v>
       </c>
       <c r="K25">
-        <v>1.031154690235151</v>
+        <v>1.054806247793387</v>
       </c>
       <c r="L25">
-        <v>1.014621544940456</v>
+        <v>1.048144189117739</v>
       </c>
       <c r="M25">
-        <v>1.034746607719536</v>
+        <v>1.063840453435576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049841917968287</v>
+        <v>1.006565491482258</v>
       </c>
       <c r="D2">
-        <v>1.053400617270445</v>
+        <v>1.027279350514206</v>
       </c>
       <c r="E2">
-        <v>1.046930530253106</v>
+        <v>1.011326604346117</v>
       </c>
       <c r="F2">
-        <v>1.062666392331433</v>
+        <v>1.031803976603672</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0435727354514</v>
+        <v>1.051604929878318</v>
       </c>
       <c r="J2">
-        <v>1.054878226620457</v>
+        <v>1.028551587584003</v>
       </c>
       <c r="K2">
-        <v>1.056146689430899</v>
+        <v>1.038371285224721</v>
       </c>
       <c r="L2">
-        <v>1.049694587561333</v>
+        <v>1.022630365063168</v>
       </c>
       <c r="M2">
-        <v>1.06538712101325</v>
+        <v>1.042837323416172</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051358347618561</v>
+        <v>1.014251132013229</v>
       </c>
       <c r="D3">
-        <v>1.054557327506738</v>
+        <v>1.033139393525659</v>
       </c>
       <c r="E3">
-        <v>1.048242175690228</v>
+        <v>1.017772259551202</v>
       </c>
       <c r="F3">
-        <v>1.063971957731935</v>
+        <v>1.038280765943551</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043978837764573</v>
+        <v>1.054247216675504</v>
       </c>
       <c r="J3">
-        <v>1.056041327173583</v>
+        <v>1.03436069475083</v>
       </c>
       <c r="K3">
-        <v>1.057115556701128</v>
+        <v>1.043365106319588</v>
       </c>
       <c r="L3">
-        <v>1.050816677690361</v>
+        <v>1.02818268100742</v>
       </c>
       <c r="M3">
-        <v>1.066506313909523</v>
+        <v>1.048446190862498</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052338173658039</v>
+        <v>1.01907383430225</v>
       </c>
       <c r="D4">
-        <v>1.055304362615863</v>
+        <v>1.03681863911479</v>
       </c>
       <c r="E4">
-        <v>1.049089793449873</v>
+        <v>1.021822326013427</v>
       </c>
       <c r="F4">
-        <v>1.06481555939605</v>
+        <v>1.042350204469066</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044239353842964</v>
+        <v>1.055890423303514</v>
       </c>
       <c r="J4">
-        <v>1.056792135404184</v>
+        <v>1.038001901446295</v>
       </c>
       <c r="K4">
-        <v>1.057740469206848</v>
+        <v>1.046492110848378</v>
       </c>
       <c r="L4">
-        <v>1.05154109995509</v>
+        <v>1.031664320126494</v>
       </c>
       <c r="M4">
-        <v>1.067228772077114</v>
+        <v>1.051963017790229</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052749763570394</v>
+        <v>1.021067334570896</v>
       </c>
       <c r="D5">
-        <v>1.055618077640462</v>
+        <v>1.038339864059146</v>
       </c>
       <c r="E5">
-        <v>1.049445873179391</v>
+        <v>1.023497662010059</v>
       </c>
       <c r="F5">
-        <v>1.065169930766175</v>
+        <v>1.044033481894953</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04434833609332</v>
+        <v>1.056566026196245</v>
       </c>
       <c r="J5">
-        <v>1.057107350766832</v>
+        <v>1.03950599317736</v>
       </c>
       <c r="K5">
-        <v>1.058002705792261</v>
+        <v>1.04778300757906</v>
       </c>
       <c r="L5">
-        <v>1.051845258430361</v>
+        <v>1.033102822974903</v>
       </c>
       <c r="M5">
-        <v>1.067532083104962</v>
+        <v>1.053415970025408</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052818852254557</v>
+        <v>1.021400116679248</v>
       </c>
       <c r="D6">
-        <v>1.05567073205791</v>
+        <v>1.038593826585143</v>
       </c>
       <c r="E6">
-        <v>1.049505645521732</v>
+        <v>1.023777400339951</v>
       </c>
       <c r="F6">
-        <v>1.065229415083847</v>
+        <v>1.04431454127869</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044366603165147</v>
+        <v>1.056678591475074</v>
       </c>
       <c r="J6">
-        <v>1.057160252083045</v>
+        <v>1.039757014037916</v>
       </c>
       <c r="K6">
-        <v>1.058046708646905</v>
+        <v>1.047998400543576</v>
       </c>
       <c r="L6">
-        <v>1.051896305336695</v>
+        <v>1.033342916407939</v>
       </c>
       <c r="M6">
-        <v>1.067582986436317</v>
+        <v>1.053658469234801</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052343674625897</v>
+        <v>1.019100602427235</v>
       </c>
       <c r="D7">
-        <v>1.055308555815779</v>
+        <v>1.036839064314652</v>
       </c>
       <c r="E7">
-        <v>1.049094552414469</v>
+        <v>1.021844817254539</v>
       </c>
       <c r="F7">
-        <v>1.064820295612509</v>
+        <v>1.042372802641295</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044240812183228</v>
+        <v>1.055899509557126</v>
       </c>
       <c r="J7">
-        <v>1.056796348988228</v>
+        <v>1.038022102104576</v>
       </c>
       <c r="K7">
-        <v>1.057743975092326</v>
+        <v>1.046509451367555</v>
       </c>
       <c r="L7">
-        <v>1.05154516565622</v>
+        <v>1.031683638622115</v>
       </c>
       <c r="M7">
-        <v>1.067232826540468</v>
+        <v>1.051982530717977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050354697972817</v>
+        <v>1.00919532524449</v>
       </c>
       <c r="D8">
-        <v>1.053791832624423</v>
+        <v>1.029283989787764</v>
       </c>
       <c r="E8">
-        <v>1.047374039085284</v>
+        <v>1.0135309335426</v>
       </c>
       <c r="F8">
-        <v>1.06310786311509</v>
+        <v>1.034018976851051</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043710448735698</v>
+        <v>1.052512135615612</v>
       </c>
       <c r="J8">
-        <v>1.055271676980944</v>
+        <v>1.030540112072712</v>
       </c>
       <c r="K8">
-        <v>1.056474541392767</v>
+        <v>1.040081379522115</v>
       </c>
       <c r="L8">
-        <v>1.050074146931831</v>
+        <v>1.024530686737056</v>
       </c>
       <c r="M8">
-        <v>1.065765719556167</v>
+        <v>1.044757043097814</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046838767276416</v>
+        <v>0.9904865643149958</v>
       </c>
       <c r="D9">
-        <v>1.051107979521698</v>
+        <v>1.015037611745984</v>
       </c>
       <c r="E9">
-        <v>1.04433356105459</v>
+        <v>0.9978773512952831</v>
       </c>
       <c r="F9">
-        <v>1.060081014239943</v>
+        <v>1.01828998922524</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042758479484685</v>
+        <v>1.045997389511285</v>
       </c>
       <c r="J9">
-        <v>1.052571012620833</v>
+        <v>1.016379797912656</v>
       </c>
       <c r="K9">
-        <v>1.054222048159246</v>
+        <v>1.027891336152819</v>
       </c>
       <c r="L9">
-        <v>1.047469191202956</v>
+        <v>1.011004961127752</v>
       </c>
       <c r="M9">
-        <v>1.06316698715619</v>
+        <v>1.031093133590371</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044486878235401</v>
+        <v>0.9770085619297739</v>
       </c>
       <c r="D10">
-        <v>1.049310919235608</v>
+        <v>1.004800404179985</v>
       </c>
       <c r="E10">
-        <v>1.042300359444692</v>
+        <v>0.9866422218064909</v>
       </c>
       <c r="F10">
-        <v>1.058056511637484</v>
+        <v>1.007002721973882</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042111995430485</v>
+        <v>1.041230091580449</v>
       </c>
       <c r="J10">
-        <v>1.050760813347251</v>
+        <v>1.006165036111514</v>
       </c>
       <c r="K10">
-        <v>1.052709623999339</v>
+        <v>1.019083523408416</v>
       </c>
       <c r="L10">
-        <v>1.045723597580538</v>
+        <v>1.00125691736508</v>
       </c>
       <c r="M10">
-        <v>1.061425112625559</v>
+        <v>1.021246680815981</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043466496473812</v>
+        <v>0.9708910444974092</v>
       </c>
       <c r="D11">
-        <v>1.048530848934371</v>
+        <v>1.000162647827241</v>
       </c>
       <c r="E11">
-        <v>1.041418406056197</v>
+        <v>0.9815548092049624</v>
       </c>
       <c r="F11">
-        <v>1.057178238213671</v>
+        <v>1.001892718923899</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041829221596281</v>
+        <v>1.039050133268363</v>
       </c>
       <c r="J11">
-        <v>1.049974585501838</v>
+        <v>1.001527012280516</v>
       </c>
       <c r="K11">
-        <v>1.052052111809339</v>
+        <v>1.015081497500168</v>
       </c>
       <c r="L11">
-        <v>1.044965538224853</v>
+        <v>0.9968331644944518</v>
       </c>
       <c r="M11">
-        <v>1.060668566129912</v>
+        <v>1.016779029391547</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043087171848374</v>
+        <v>0.9685721692421708</v>
       </c>
       <c r="D12">
-        <v>1.048240800025716</v>
+        <v>0.998406258746791</v>
       </c>
       <c r="E12">
-        <v>1.041090567379339</v>
+        <v>0.9796284249568056</v>
       </c>
       <c r="F12">
-        <v>1.05685175382197</v>
+        <v>0.9999579866398178</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041723757055159</v>
+        <v>1.038221525176688</v>
       </c>
       <c r="J12">
-        <v>1.049682178191638</v>
+        <v>0.9997688491841366</v>
       </c>
       <c r="K12">
-        <v>1.051807482955586</v>
+        <v>1.013564056152226</v>
       </c>
       <c r="L12">
-        <v>1.044683623398943</v>
+        <v>0.995156603450247</v>
       </c>
       <c r="M12">
-        <v>1.060387198959075</v>
+        <v>1.015085991603571</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043168552417708</v>
+        <v>0.9690717578312099</v>
       </c>
       <c r="D13">
-        <v>1.048303029994167</v>
+        <v>0.998784587396325</v>
       </c>
       <c r="E13">
-        <v>1.04116090094864</v>
+        <v>0.9800433586031937</v>
       </c>
       <c r="F13">
-        <v>1.056921797456787</v>
+        <v>1.000374708198031</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041746399049078</v>
+        <v>1.038400144761465</v>
       </c>
       <c r="J13">
-        <v>1.049744917281751</v>
+        <v>1.000147637261181</v>
       </c>
       <c r="K13">
-        <v>1.051859974845115</v>
+        <v>1.013890997578667</v>
       </c>
       <c r="L13">
-        <v>1.044744110477337</v>
+        <v>0.9955177933275209</v>
       </c>
       <c r="M13">
-        <v>1.060447569204346</v>
+        <v>1.015450723114096</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043435147747131</v>
+        <v>0.9707003421368202</v>
       </c>
       <c r="D14">
-        <v>1.048506879475096</v>
+        <v>1.000018170367398</v>
       </c>
       <c r="E14">
-        <v>1.041391311784635</v>
+        <v>0.9813963426532842</v>
       </c>
       <c r="F14">
-        <v>1.057151256142727</v>
+        <v>1.001733561149838</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041820512647293</v>
+        <v>1.038982034665644</v>
       </c>
       <c r="J14">
-        <v>1.049950422554128</v>
+        <v>1.001382423452952</v>
       </c>
       <c r="K14">
-        <v>1.052031898894916</v>
+        <v>1.014956712441144</v>
       </c>
       <c r="L14">
-        <v>1.044942241986386</v>
+        <v>0.9966952787176077</v>
       </c>
       <c r="M14">
-        <v>1.060645315450163</v>
+        <v>1.016639784979469</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043599364652964</v>
+        <v>0.9716974594725099</v>
       </c>
       <c r="D15">
-        <v>1.048632438459045</v>
+        <v>1.000773659094832</v>
       </c>
       <c r="E15">
-        <v>1.041533243238368</v>
+        <v>0.9822249935200966</v>
       </c>
       <c r="F15">
-        <v>1.057292599285905</v>
+        <v>1.002565835247433</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041866119451921</v>
+        <v>1.039338007038554</v>
       </c>
       <c r="J15">
-        <v>1.050076992263248</v>
+        <v>1.002138425915048</v>
       </c>
       <c r="K15">
-        <v>1.052137773865267</v>
+        <v>1.015609153516776</v>
       </c>
       <c r="L15">
-        <v>1.045064272389438</v>
+        <v>0.9974162488223566</v>
       </c>
       <c r="M15">
-        <v>1.060767106597331</v>
+        <v>1.017367865849328</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044554554728185</v>
+        <v>0.9774082802079587</v>
       </c>
       <c r="D16">
-        <v>1.049362648738496</v>
+        <v>1.005103637396254</v>
       </c>
       <c r="E16">
-        <v>1.042358858245775</v>
+        <v>0.9869748998564056</v>
       </c>
       <c r="F16">
-        <v>1.058114764419106</v>
+        <v>1.00733690264251</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042130702085243</v>
+        <v>1.04137220785904</v>
       </c>
       <c r="J16">
-        <v>1.050812941566493</v>
+        <v>1.006468062430757</v>
       </c>
       <c r="K16">
-        <v>1.052753205191828</v>
+        <v>1.019344942699025</v>
       </c>
       <c r="L16">
-        <v>1.045773860461812</v>
+        <v>1.001545994813001</v>
       </c>
       <c r="M16">
-        <v>1.061475273079571</v>
+        <v>1.021538646360551</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045153178763843</v>
+        <v>0.980912338582095</v>
       </c>
       <c r="D17">
-        <v>1.049820169127762</v>
+        <v>1.007762895442363</v>
       </c>
       <c r="E17">
-        <v>1.042876321165435</v>
+        <v>0.9898926463501042</v>
       </c>
       <c r="F17">
-        <v>1.058630040390084</v>
+        <v>1.010267948393245</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042295904953317</v>
+        <v>1.04261624229171</v>
       </c>
       <c r="J17">
-        <v>1.051273935915162</v>
+        <v>1.009124317910979</v>
       </c>
       <c r="K17">
-        <v>1.053138542974237</v>
+        <v>1.021636168414766</v>
       </c>
       <c r="L17">
-        <v>1.046218371231635</v>
+        <v>1.004080245778949</v>
       </c>
       <c r="M17">
-        <v>1.061918866269384</v>
+        <v>1.02409830703985</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045502153854807</v>
+        <v>0.9829293582695962</v>
       </c>
       <c r="D18">
-        <v>1.050086847086184</v>
+        <v>1.009294435356219</v>
       </c>
       <c r="E18">
-        <v>1.043177998135681</v>
+        <v>0.9915732900058792</v>
       </c>
       <c r="F18">
-        <v>1.058930433350786</v>
+        <v>1.011956344415566</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042391990971234</v>
+        <v>1.043330815334252</v>
       </c>
       <c r="J18">
-        <v>1.051542595051753</v>
+        <v>1.010653156076458</v>
       </c>
       <c r="K18">
-        <v>1.053363051322834</v>
+        <v>1.022954640425654</v>
       </c>
       <c r="L18">
-        <v>1.046477434453211</v>
+        <v>1.005539082240362</v>
       </c>
       <c r="M18">
-        <v>1.062177384847303</v>
+        <v>1.025571838642267</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045621113021884</v>
+        <v>0.9836126779244332</v>
       </c>
       <c r="D19">
-        <v>1.050177746016654</v>
+        <v>1.009813415654802</v>
       </c>
       <c r="E19">
-        <v>1.043280836887256</v>
+        <v>0.992142837322721</v>
       </c>
       <c r="F19">
-        <v>1.059032832850917</v>
+        <v>1.012528533024994</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042424707425087</v>
+        <v>1.043572633962847</v>
       </c>
       <c r="J19">
-        <v>1.051634161885123</v>
+        <v>1.011171058788516</v>
       </c>
       <c r="K19">
-        <v>1.053439560178995</v>
+        <v>1.023401233210638</v>
       </c>
       <c r="L19">
-        <v>1.046565732485558</v>
+        <v>1.006033308059284</v>
       </c>
       <c r="M19">
-        <v>1.06226549555885</v>
+        <v>1.026071053163427</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045088972014914</v>
+        <v>0.9805391912832083</v>
       </c>
       <c r="D20">
-        <v>1.049771100795816</v>
+        <v>1.007479625320552</v>
       </c>
       <c r="E20">
-        <v>1.042820817898274</v>
+        <v>0.9895818176917232</v>
       </c>
       <c r="F20">
-        <v>1.058574772627588</v>
+        <v>1.009955693053821</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042278208612338</v>
+        <v>1.042483922405428</v>
       </c>
       <c r="J20">
-        <v>1.051224499533824</v>
+        <v>1.008841469410626</v>
       </c>
       <c r="K20">
-        <v>1.05309722605104</v>
+        <v>1.021392217322078</v>
       </c>
       <c r="L20">
-        <v>1.046170701447976</v>
+        <v>1.003810365836687</v>
       </c>
       <c r="M20">
-        <v>1.061871295906621</v>
+        <v>1.023825713753251</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043356650682585</v>
+        <v>0.9702220871719044</v>
       </c>
       <c r="D21">
-        <v>1.048446859104319</v>
+        <v>0.9996558672530969</v>
       </c>
       <c r="E21">
-        <v>1.041323468270875</v>
+        <v>0.9809989639051158</v>
       </c>
       <c r="F21">
-        <v>1.057083693358386</v>
+        <v>1.001334452560749</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041798699925422</v>
+        <v>1.038811216643399</v>
       </c>
       <c r="J21">
-        <v>1.049889916566874</v>
+        <v>1.001019813792847</v>
       </c>
       <c r="K21">
-        <v>1.051981282621639</v>
+        <v>1.014643762269331</v>
       </c>
       <c r="L21">
-        <v>1.044883906572894</v>
+        <v>0.9963494855670876</v>
       </c>
       <c r="M21">
-        <v>1.060587093878604</v>
+        <v>1.016290587356386</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04226567677385</v>
+        <v>0.9634633717352661</v>
       </c>
       <c r="D22">
-        <v>1.04761253988534</v>
+        <v>0.9945399114624875</v>
       </c>
       <c r="E22">
-        <v>1.040380621955986</v>
+        <v>0.9753883307647042</v>
       </c>
       <c r="F22">
-        <v>1.056144716671083</v>
+        <v>0.995699962509936</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041494725996902</v>
+        <v>1.036391941703629</v>
       </c>
       <c r="J22">
-        <v>1.049048682917633</v>
+        <v>0.9958953822415368</v>
       </c>
       <c r="K22">
-        <v>1.05127733024006</v>
+        <v>1.010220315364129</v>
       </c>
       <c r="L22">
-        <v>1.044072889768369</v>
+        <v>0.9914636411664832</v>
       </c>
       <c r="M22">
-        <v>1.059777624810362</v>
+        <v>1.011357088000099</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042844195888606</v>
+        <v>0.9670736619289378</v>
       </c>
       <c r="D23">
-        <v>1.04805499292112</v>
+        <v>0.9972717206862542</v>
       </c>
       <c r="E23">
-        <v>1.040880577979997</v>
+        <v>0.9783841529893194</v>
       </c>
       <c r="F23">
-        <v>1.056642628093356</v>
+        <v>0.9987083878547944</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04165610507359</v>
+        <v>1.03768543567518</v>
       </c>
       <c r="J23">
-        <v>1.049494840808799</v>
+        <v>0.9986326793882263</v>
       </c>
       <c r="K23">
-        <v>1.05165072996229</v>
+        <v>1.012583350090979</v>
       </c>
       <c r="L23">
-        <v>1.044503012857238</v>
+        <v>0.9940732764477636</v>
       </c>
       <c r="M23">
-        <v>1.060206935112736</v>
+        <v>1.01399206944554</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045117984875067</v>
+        <v>0.9807078831078152</v>
       </c>
       <c r="D24">
-        <v>1.049793273237734</v>
+        <v>1.00760768312628</v>
       </c>
       <c r="E24">
-        <v>1.042845897900576</v>
+        <v>0.989722333144237</v>
       </c>
       <c r="F24">
-        <v>1.058599746241455</v>
+        <v>1.010096853180487</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042286205673922</v>
+        <v>1.042543746107196</v>
       </c>
       <c r="J24">
-        <v>1.051246838420802</v>
+        <v>1.008969339627783</v>
       </c>
       <c r="K24">
-        <v>1.053115896171094</v>
+        <v>1.021502503630274</v>
       </c>
       <c r="L24">
-        <v>1.046192242027788</v>
+        <v>1.003932372544917</v>
       </c>
       <c r="M24">
-        <v>1.061892791591591</v>
+        <v>1.023948946895786</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047749083448768</v>
+        <v>0.9954873891593093</v>
       </c>
       <c r="D25">
-        <v>1.051803176975658</v>
+        <v>1.018841996489165</v>
       </c>
       <c r="E25">
-        <v>1.045120666788838</v>
+        <v>1.002055047389457</v>
       </c>
       <c r="F25">
-        <v>1.060864666435096</v>
+        <v>1.022487634352703</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043006662639419</v>
+        <v>1.047751764770824</v>
       </c>
       <c r="J25">
-        <v>1.053270893250965</v>
+        <v>1.020167580909836</v>
       </c>
       <c r="K25">
-        <v>1.054806247793387</v>
+        <v>1.03115469023515</v>
       </c>
       <c r="L25">
-        <v>1.048144189117739</v>
+        <v>1.014621544940456</v>
       </c>
       <c r="M25">
-        <v>1.063840453435576</v>
+        <v>1.034746607719535</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,46 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.006565491482258</v>
+        <v>1.036830733973627</v>
       </c>
       <c r="D2">
-        <v>1.027279350514206</v>
+        <v>1.047784861035108</v>
       </c>
       <c r="E2">
-        <v>1.011326604346117</v>
+        <v>1.045475457856369</v>
       </c>
       <c r="F2">
-        <v>1.031803976603672</v>
+        <v>1.051312376934735</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051604929878318</v>
+        <v>1.06497697083157</v>
       </c>
       <c r="J2">
-        <v>1.028551587584003</v>
+        <v>1.05796300529101</v>
       </c>
       <c r="K2">
-        <v>1.038371285224721</v>
+        <v>1.058616321550432</v>
       </c>
       <c r="L2">
-        <v>1.022630365063168</v>
+        <v>1.056335617602579</v>
       </c>
       <c r="M2">
-        <v>1.042837323416172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.062100303401038</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.057720414269819</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.052516925897929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014251132013229</v>
+        <v>1.041388129982908</v>
       </c>
       <c r="D3">
-        <v>1.033139393525659</v>
+        <v>1.050947929482961</v>
       </c>
       <c r="E3">
-        <v>1.017772259551202</v>
+        <v>1.04913907849925</v>
       </c>
       <c r="F3">
-        <v>1.038280765943551</v>
+        <v>1.054696802528007</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054247216675504</v>
+        <v>1.066550973670412</v>
       </c>
       <c r="J3">
-        <v>1.03436069475083</v>
+        <v>1.060810755694182</v>
       </c>
       <c r="K3">
-        <v>1.043365106319588</v>
+        <v>1.060967922241772</v>
       </c>
       <c r="L3">
-        <v>1.02818268100742</v>
+        <v>1.059179573679758</v>
       </c>
       <c r="M3">
-        <v>1.048446190862498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.06467457940863</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.0597577312429</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.054177038333008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01907383430225</v>
+        <v>1.044278663164678</v>
       </c>
       <c r="D4">
-        <v>1.03681863911479</v>
+        <v>1.052957284989603</v>
       </c>
       <c r="E4">
-        <v>1.021822326013427</v>
+        <v>1.051467644570992</v>
       </c>
       <c r="F4">
-        <v>1.042350204469066</v>
+        <v>1.056850558071264</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055890423303514</v>
+        <v>1.067539838181999</v>
       </c>
       <c r="J4">
-        <v>1.038001901446295</v>
+        <v>1.062613746213467</v>
       </c>
       <c r="K4">
-        <v>1.046492110848378</v>
+        <v>1.062455965310631</v>
       </c>
       <c r="L4">
-        <v>1.031664320126494</v>
+        <v>1.060982183343583</v>
       </c>
       <c r="M4">
-        <v>1.051963017790229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.066308049439797</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.061050478808151</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.055230051744451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021067334570896</v>
+        <v>1.045486930173753</v>
       </c>
       <c r="D5">
-        <v>1.038339864059146</v>
+        <v>1.05380064724454</v>
       </c>
       <c r="E5">
-        <v>1.023497662010059</v>
+        <v>1.052443542143989</v>
       </c>
       <c r="F5">
-        <v>1.044033481894953</v>
+        <v>1.057752625601792</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056566026196245</v>
+        <v>1.06795305734976</v>
       </c>
       <c r="J5">
-        <v>1.03950599317736</v>
+        <v>1.063368945293135</v>
       </c>
       <c r="K5">
-        <v>1.04778300757906</v>
+        <v>1.063080947131869</v>
       </c>
       <c r="L5">
-        <v>1.033102822974903</v>
+        <v>1.061737902127952</v>
       </c>
       <c r="M5">
-        <v>1.053415970025408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.066992232126595</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.061591948464547</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.05567897224752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021400116679248</v>
+        <v>1.045697050804889</v>
       </c>
       <c r="D6">
-        <v>1.038593826585143</v>
+        <v>1.05395064039705</v>
       </c>
       <c r="E6">
-        <v>1.023777400339951</v>
+        <v>1.052615017338382</v>
       </c>
       <c r="F6">
-        <v>1.04431454127869</v>
+        <v>1.057909712454955</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056678591475074</v>
+        <v>1.06802742387405</v>
       </c>
       <c r="J6">
-        <v>1.039757014037916</v>
+        <v>1.063503063755421</v>
       </c>
       <c r="K6">
-        <v>1.047998400543576</v>
+        <v>1.063194230951269</v>
       </c>
       <c r="L6">
-        <v>1.033342916407939</v>
+        <v>1.061872381463336</v>
       </c>
       <c r="M6">
-        <v>1.053658469234801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.067112724205532</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.061687307173721</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.055767633534698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019100602427235</v>
+        <v>1.044316612271741</v>
       </c>
       <c r="D7">
-        <v>1.036839064314652</v>
+        <v>1.052992619274844</v>
       </c>
       <c r="E7">
-        <v>1.021844817254539</v>
+        <v>1.051502948886617</v>
       </c>
       <c r="F7">
-        <v>1.042372802641295</v>
+        <v>1.056879229458683</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055899509557126</v>
+        <v>1.067559954115201</v>
       </c>
       <c r="J7">
-        <v>1.038022102104576</v>
+        <v>1.062645129733026</v>
       </c>
       <c r="K7">
-        <v>1.046509451367555</v>
+        <v>1.06248812296507</v>
       </c>
       <c r="L7">
-        <v>1.031683638622115</v>
+        <v>1.061014304787696</v>
       </c>
       <c r="M7">
-        <v>1.051982530717977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.066333631358962</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.061070724625379</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.055272490236671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00919532524449</v>
+        <v>1.038411223834509</v>
       </c>
       <c r="D8">
-        <v>1.029283989787764</v>
+        <v>1.04889229843053</v>
       </c>
       <c r="E8">
-        <v>1.0135309335426</v>
+        <v>1.046751243799005</v>
       </c>
       <c r="F8">
-        <v>1.034018976851051</v>
+        <v>1.052485211375497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052512135615612</v>
+        <v>1.065533699410508</v>
       </c>
       <c r="J8">
-        <v>1.030540112072712</v>
+        <v>1.058960984314693</v>
       </c>
       <c r="K8">
-        <v>1.040081379522115</v>
+        <v>1.059448345289559</v>
       </c>
       <c r="L8">
-        <v>1.024530686737056</v>
+        <v>1.05733309704955</v>
       </c>
       <c r="M8">
-        <v>1.044757043097814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.062998244953702</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.058431058014961</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.053127688625448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9904865643149958</v>
+        <v>1.02749896207004</v>
       </c>
       <c r="D9">
-        <v>1.015037611745984</v>
+        <v>1.041328468074373</v>
       </c>
       <c r="E9">
-        <v>0.9978773512952831</v>
+        <v>1.038003779693968</v>
       </c>
       <c r="F9">
-        <v>1.01828998922524</v>
+        <v>1.044424335403517</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045997389511285</v>
+        <v>1.061704365221369</v>
       </c>
       <c r="J9">
-        <v>1.016379797912656</v>
+        <v>1.052116681430913</v>
       </c>
       <c r="K9">
-        <v>1.027891336152819</v>
+        <v>1.053784807810786</v>
       </c>
       <c r="L9">
-        <v>1.011004961127752</v>
+        <v>1.050508959404834</v>
       </c>
       <c r="M9">
-        <v>1.031093133590371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.056835551082153</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.053553800932117</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.049120199002314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9770085619297739</v>
+        <v>1.020007696225735</v>
       </c>
       <c r="D10">
-        <v>1.004800404179985</v>
+        <v>1.036178126603886</v>
       </c>
       <c r="E10">
-        <v>0.9866422218064909</v>
+        <v>1.032085271325277</v>
       </c>
       <c r="F10">
-        <v>1.007002721973882</v>
+        <v>1.039018579140449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041230091580449</v>
+        <v>1.059062341132667</v>
       </c>
       <c r="J10">
-        <v>1.006165036111514</v>
+        <v>1.04744938529319</v>
       </c>
       <c r="K10">
-        <v>1.019083523408416</v>
+        <v>1.049923516491085</v>
       </c>
       <c r="L10">
-        <v>1.00125691736508</v>
+        <v>1.045898413394632</v>
       </c>
       <c r="M10">
-        <v>1.021246680815981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.052717352149467</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.050345281409475</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.046406649014687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9708910444974092</v>
+        <v>1.017726342557557</v>
       </c>
       <c r="D11">
-        <v>1.000162647827241</v>
+        <v>1.034771020939008</v>
       </c>
       <c r="E11">
-        <v>0.9815548092049624</v>
+        <v>1.030739044156467</v>
       </c>
       <c r="F11">
-        <v>1.001892718923899</v>
+        <v>1.03806676795962</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039050133268363</v>
+        <v>1.058508515584135</v>
       </c>
       <c r="J11">
-        <v>1.001527012280516</v>
+        <v>1.046379836423102</v>
       </c>
       <c r="K11">
-        <v>1.015081497500168</v>
+        <v>1.049065704028133</v>
       </c>
       <c r="L11">
-        <v>0.9968331644944518</v>
+        <v>1.045103651372454</v>
       </c>
       <c r="M11">
-        <v>1.016779029391547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.052304816236335</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.050449074148865</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.045832522851723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9685721692421708</v>
+        <v>1.01724451461674</v>
       </c>
       <c r="D12">
-        <v>0.998406258746791</v>
+        <v>1.034550797433949</v>
       </c>
       <c r="E12">
-        <v>0.9796284249568056</v>
+        <v>1.030693250242204</v>
       </c>
       <c r="F12">
-        <v>0.9999579866398178</v>
+        <v>1.038227817040641</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038221525176688</v>
+        <v>1.058522307837165</v>
       </c>
       <c r="J12">
-        <v>0.9997688491841366</v>
+        <v>1.046336571063847</v>
       </c>
       <c r="K12">
-        <v>1.013564056152226</v>
+        <v>1.049044701504783</v>
       </c>
       <c r="L12">
-        <v>0.995156603450247</v>
+        <v>1.04525512963734</v>
       </c>
       <c r="M12">
-        <v>1.015085991603571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.05265753557517</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.051050357468241</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.045817673786759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9690717578312099</v>
+        <v>1.018145484483561</v>
       </c>
       <c r="D13">
-        <v>0.998784587396325</v>
+        <v>1.035259683605279</v>
       </c>
       <c r="E13">
-        <v>0.9800433586031937</v>
+        <v>1.031675757007058</v>
       </c>
       <c r="F13">
-        <v>1.000374708198031</v>
+        <v>1.039289274022569</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038400144761465</v>
+        <v>1.05899761588825</v>
       </c>
       <c r="J13">
-        <v>1.000147637261181</v>
+        <v>1.047111375529835</v>
       </c>
       <c r="K13">
-        <v>1.013890997578667</v>
+        <v>1.04969929290525</v>
       </c>
       <c r="L13">
-        <v>0.9955177933275209</v>
+        <v>1.046178176354736</v>
       </c>
       <c r="M13">
-        <v>1.015450723114096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.053658931981504</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.052115663203929</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.046278022859921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9707003421368202</v>
+        <v>1.019398076959014</v>
       </c>
       <c r="D14">
-        <v>1.000018170367398</v>
+        <v>1.036174281507007</v>
       </c>
       <c r="E14">
-        <v>0.9813963426532842</v>
+        <v>1.032823072975616</v>
       </c>
       <c r="F14">
-        <v>1.001733561149838</v>
+        <v>1.040434877753061</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038982034665644</v>
+        <v>1.059536904215509</v>
       </c>
       <c r="J14">
-        <v>1.001382423452952</v>
+        <v>1.048020095735704</v>
       </c>
       <c r="K14">
-        <v>1.014956712441144</v>
+        <v>1.05046091190462</v>
       </c>
       <c r="L14">
-        <v>0.9966952787176077</v>
+        <v>1.047167643307322</v>
       </c>
       <c r="M14">
-        <v>1.016639784979469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.054648541551131</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.053069501008528</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.046817900819355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9716974594725099</v>
+        <v>1.020017212085328</v>
       </c>
       <c r="D15">
-        <v>1.000773659094832</v>
+        <v>1.036612599100076</v>
       </c>
       <c r="E15">
-        <v>0.9822249935200966</v>
+        <v>1.033343980864607</v>
       </c>
       <c r="F15">
-        <v>1.002565835247433</v>
+        <v>1.040931692454709</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039338007038554</v>
+        <v>1.059778218558721</v>
       </c>
       <c r="J15">
-        <v>1.002138425915048</v>
+        <v>1.048434125732763</v>
       </c>
       <c r="K15">
-        <v>1.015609153516776</v>
+        <v>1.050807296396598</v>
       </c>
       <c r="L15">
-        <v>0.9974162488223566</v>
+        <v>1.047594738868396</v>
       </c>
       <c r="M15">
-        <v>1.017367865849328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.055053008852732</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.053426380329449</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.047068579365015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9774082802079587</v>
+        <v>1.023017125942891</v>
       </c>
       <c r="D16">
-        <v>1.005103637396254</v>
+        <v>1.038657432291978</v>
       </c>
       <c r="E16">
-        <v>0.9869748998564056</v>
+        <v>1.035662162988833</v>
       </c>
       <c r="F16">
-        <v>1.00733690264251</v>
+        <v>1.04304495452921</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04137220785904</v>
+        <v>1.060821714344716</v>
       </c>
       <c r="J16">
-        <v>1.006468062430757</v>
+        <v>1.050272415248896</v>
       </c>
       <c r="K16">
-        <v>1.019344942699025</v>
+        <v>1.052327379731834</v>
       </c>
       <c r="L16">
-        <v>1.001545994813001</v>
+        <v>1.04938117847429</v>
       </c>
       <c r="M16">
-        <v>1.021538646360551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.056643679242138</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.05464532414578</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04814641270944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.980912338582095</v>
+        <v>1.024666672695633</v>
       </c>
       <c r="D17">
-        <v>1.007762895442363</v>
+        <v>1.039751759905983</v>
       </c>
       <c r="E17">
-        <v>0.9898926463501042</v>
+        <v>1.036844606417505</v>
       </c>
       <c r="F17">
-        <v>1.010267948393245</v>
+        <v>1.044064645311145</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04261624229171</v>
+        <v>1.061339271299853</v>
       </c>
       <c r="J17">
-        <v>1.009124317910979</v>
+        <v>1.051208870326381</v>
       </c>
       <c r="K17">
-        <v>1.021636168414766</v>
+        <v>1.053096936038112</v>
       </c>
       <c r="L17">
-        <v>1.004080245778949</v>
+        <v>1.050236050312281</v>
       </c>
       <c r="M17">
-        <v>1.02409830703985</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.057341788524047</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.055069482411522</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04869304421767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9829293582695962</v>
+        <v>1.025270098047907</v>
       </c>
       <c r="D18">
-        <v>1.009294435356219</v>
+        <v>1.040089868053434</v>
       </c>
       <c r="E18">
-        <v>0.9915732900058792</v>
+        <v>1.037101866165403</v>
       </c>
       <c r="F18">
-        <v>1.011956344415566</v>
+        <v>1.044167508173099</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043330815334252</v>
+        <v>1.061424807623927</v>
       </c>
       <c r="J18">
-        <v>1.010653156076458</v>
+        <v>1.051411288254718</v>
       </c>
       <c r="K18">
-        <v>1.022954640425654</v>
+        <v>1.053250707955313</v>
       </c>
       <c r="L18">
-        <v>1.005539082240362</v>
+        <v>1.050309495749547</v>
       </c>
       <c r="M18">
-        <v>1.025571838642267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.057265047324694</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.054774012032721</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.048790317326249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9836126779244332</v>
+        <v>1.024951594094829</v>
       </c>
       <c r="D19">
-        <v>1.009813415654802</v>
+        <v>1.039773443928515</v>
       </c>
       <c r="E19">
-        <v>0.992142837322721</v>
+        <v>1.036544632396731</v>
       </c>
       <c r="F19">
-        <v>1.012528533024994</v>
+        <v>1.043451763477296</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043572633962847</v>
+        <v>1.061138484712758</v>
       </c>
       <c r="J19">
-        <v>1.011171058788516</v>
+        <v>1.050974687309258</v>
       </c>
       <c r="K19">
-        <v>1.023401233210638</v>
+        <v>1.052878165139862</v>
       </c>
       <c r="L19">
-        <v>1.006033308059284</v>
+        <v>1.049699699854308</v>
       </c>
       <c r="M19">
-        <v>1.026071053163427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.056499613999152</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.053847693399624</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.048533217558841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9805391912832083</v>
+        <v>1.022017349573562</v>
       </c>
       <c r="D20">
-        <v>1.007479625320552</v>
+        <v>1.037582370644673</v>
       </c>
       <c r="E20">
-        <v>0.9895818176917232</v>
+        <v>1.033688642206411</v>
       </c>
       <c r="F20">
-        <v>1.009955693053821</v>
+        <v>1.040472789026896</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042483922405428</v>
+        <v>1.05979416907014</v>
       </c>
       <c r="J20">
-        <v>1.008841469410626</v>
+        <v>1.048725150432477</v>
       </c>
       <c r="K20">
-        <v>1.021392217322078</v>
+        <v>1.05099507332833</v>
       </c>
       <c r="L20">
-        <v>1.003810365836687</v>
+        <v>1.047163900235608</v>
       </c>
       <c r="M20">
-        <v>1.023825713753251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.053839443083447</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.051222885295846</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.047205710017461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9702220871719044</v>
+        <v>1.016172218232002</v>
       </c>
       <c r="D21">
-        <v>0.9996558672530969</v>
+        <v>1.033539252602613</v>
       </c>
       <c r="E21">
-        <v>0.9809989639051158</v>
+        <v>1.028995532158616</v>
       </c>
       <c r="F21">
-        <v>1.001334452560749</v>
+        <v>1.036137907567965</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038811216643399</v>
+        <v>1.057664758333312</v>
       </c>
       <c r="J21">
-        <v>1.001019813792847</v>
+        <v>1.04500900852022</v>
       </c>
       <c r="K21">
-        <v>1.014643762269331</v>
+        <v>1.047911904218495</v>
       </c>
       <c r="L21">
-        <v>0.9963494855670876</v>
+        <v>1.0434476380863</v>
       </c>
       <c r="M21">
-        <v>1.016290587356386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.050465522673159</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.048512422798897</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.045029051128046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9634633717352661</v>
+        <v>1.012448876968546</v>
       </c>
       <c r="D22">
-        <v>0.9945399114624875</v>
+        <v>1.030968831777639</v>
       </c>
       <c r="E22">
-        <v>0.9753883307647042</v>
+        <v>1.026033930350513</v>
       </c>
       <c r="F22">
-        <v>0.995699962509936</v>
+        <v>1.033428427258771</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036391941703629</v>
+        <v>1.056307186880978</v>
       </c>
       <c r="J22">
-        <v>0.9958953822415368</v>
+        <v>1.042652236676113</v>
       </c>
       <c r="K22">
-        <v>1.010220315364129</v>
+        <v>1.045950780708011</v>
       </c>
       <c r="L22">
-        <v>0.9914636411664832</v>
+        <v>1.041106710046681</v>
       </c>
       <c r="M22">
-        <v>1.011357088000099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.048365526839294</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.046850433240574</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.043629168657308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9670736619289378</v>
+        <v>1.014408030494975</v>
       </c>
       <c r="D23">
-        <v>0.9972717206862542</v>
+        <v>1.032312270619846</v>
       </c>
       <c r="E23">
-        <v>0.9783841529893194</v>
+        <v>1.027585631949676</v>
       </c>
       <c r="F23">
-        <v>0.9987083878547944</v>
+        <v>1.034851988705659</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03768543567518</v>
+        <v>1.057015871685666</v>
       </c>
       <c r="J23">
-        <v>0.9986326793882263</v>
+        <v>1.043884998168137</v>
       </c>
       <c r="K23">
-        <v>1.012583350090979</v>
+        <v>1.046971047826546</v>
       </c>
       <c r="L23">
-        <v>0.9940732764477636</v>
+        <v>1.042329096085283</v>
       </c>
       <c r="M23">
-        <v>1.01399206944554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.049465676358042</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.0477211197253</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044341011409355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9807078831078152</v>
+        <v>1.021978820992342</v>
       </c>
       <c r="D24">
-        <v>1.00760768312628</v>
+        <v>1.037528663176828</v>
       </c>
       <c r="E24">
-        <v>0.989722333144237</v>
+        <v>1.033607051838596</v>
       </c>
       <c r="F24">
-        <v>1.010096853180487</v>
+        <v>1.040376202567125</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042543746107196</v>
+        <v>1.059746061187555</v>
       </c>
       <c r="J24">
-        <v>1.008969339627783</v>
+        <v>1.0486562977374</v>
       </c>
       <c r="K24">
-        <v>1.021502503630274</v>
+        <v>1.050927297917859</v>
       </c>
       <c r="L24">
-        <v>1.003932372544917</v>
+        <v>1.047068620029389</v>
       </c>
       <c r="M24">
-        <v>1.023948946895786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.053729521250642</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.051095626044714</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.047130796211153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9954873891593093</v>
+        <v>1.03041614094938</v>
       </c>
       <c r="D25">
-        <v>1.018841996489165</v>
+        <v>1.043361314755914</v>
       </c>
       <c r="E25">
-        <v>1.002055047389457</v>
+        <v>1.040345884604108</v>
       </c>
       <c r="F25">
-        <v>1.022487634352703</v>
+        <v>1.04657315271125</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047751764770824</v>
+        <v>1.062747711557231</v>
       </c>
       <c r="J25">
-        <v>1.020167580909836</v>
+        <v>1.053961516620861</v>
       </c>
       <c r="K25">
-        <v>1.03115469023515</v>
+        <v>1.055321829037121</v>
       </c>
       <c r="L25">
-        <v>1.014621544940456</v>
+        <v>1.052348579628322</v>
       </c>
       <c r="M25">
-        <v>1.034746607719535</v>
+        <v>1.058489075937658</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.054862430710668</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.050235039064675</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036830733973627</v>
+        <v>1.033937261748176</v>
       </c>
       <c r="D2">
-        <v>1.047784861035108</v>
+        <v>1.044158901286828</v>
       </c>
       <c r="E2">
-        <v>1.045475457856369</v>
+        <v>1.043377674736423</v>
       </c>
       <c r="F2">
-        <v>1.051312376934735</v>
+        <v>1.049523908480916</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.06497697083157</v>
+        <v>1.062882947684066</v>
       </c>
       <c r="J2">
-        <v>1.05796300529101</v>
+        <v>1.055148220451858</v>
       </c>
       <c r="K2">
-        <v>1.058616321550432</v>
+        <v>1.055035492853319</v>
       </c>
       <c r="L2">
-        <v>1.056335617602579</v>
+        <v>1.05426404115857</v>
       </c>
       <c r="M2">
-        <v>1.062100303401038</v>
+        <v>1.060333861410451</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.057720414269819</v>
+        <v>1.056322424974176</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.052516925897929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049993677046136</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026176471051948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041388129982908</v>
+        <v>1.038229624718708</v>
       </c>
       <c r="D3">
-        <v>1.050947929482961</v>
+        <v>1.047005894050536</v>
       </c>
       <c r="E3">
-        <v>1.04913907849925</v>
+        <v>1.046790146003354</v>
       </c>
       <c r="F3">
-        <v>1.054696802528007</v>
+        <v>1.05271626673097</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.066550973670412</v>
+        <v>1.064267737374405</v>
       </c>
       <c r="J3">
-        <v>1.060810755694182</v>
+        <v>1.057729718082333</v>
       </c>
       <c r="K3">
-        <v>1.060967922241772</v>
+        <v>1.057070680112961</v>
       </c>
       <c r="L3">
-        <v>1.059179573679758</v>
+        <v>1.056857395621725</v>
       </c>
       <c r="M3">
-        <v>1.06467457940863</v>
+        <v>1.06271630017853</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.0597577312429</v>
+        <v>1.058207922971515</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.054177038333008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.05142978974702</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026658406507251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044278663164678</v>
+        <v>1.0409545870139</v>
       </c>
       <c r="D4">
-        <v>1.052957284989603</v>
+        <v>1.048816679068533</v>
       </c>
       <c r="E4">
-        <v>1.051467644570992</v>
+        <v>1.048962093328398</v>
       </c>
       <c r="F4">
-        <v>1.056850558071264</v>
+        <v>1.054750172433322</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.067539838181999</v>
+        <v>1.0651376315806</v>
       </c>
       <c r="J4">
-        <v>1.062613746213467</v>
+        <v>1.059365678456702</v>
       </c>
       <c r="K4">
-        <v>1.062455965310631</v>
+        <v>1.058359576052917</v>
       </c>
       <c r="L4">
-        <v>1.060982183343583</v>
+        <v>1.058503430218611</v>
       </c>
       <c r="M4">
-        <v>1.066308049439797</v>
+        <v>1.064229838661414</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.061050478808151</v>
+        <v>1.059405757764075</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.055230051744451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.052342079603244</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026961218507499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045486930173753</v>
+        <v>1.042093564613258</v>
       </c>
       <c r="D5">
-        <v>1.05380064724454</v>
+        <v>1.04957698047349</v>
       </c>
       <c r="E5">
-        <v>1.052443542143989</v>
+        <v>1.049872204252325</v>
       </c>
       <c r="F5">
-        <v>1.057752625601792</v>
+        <v>1.055601954200237</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.06795305734976</v>
+        <v>1.065501001267941</v>
       </c>
       <c r="J5">
-        <v>1.063368945293135</v>
+        <v>1.060050853543151</v>
       </c>
       <c r="K5">
-        <v>1.063080947131869</v>
+        <v>1.058901185044128</v>
       </c>
       <c r="L5">
-        <v>1.061737902127952</v>
+        <v>1.059193325969448</v>
       </c>
       <c r="M5">
-        <v>1.066992232126595</v>
+        <v>1.064863660010832</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.061591948464547</v>
+        <v>1.059907371985607</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.05567897224752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.052732770382146</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027089299731302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045697050804889</v>
+        <v>1.042290869812704</v>
       </c>
       <c r="D6">
-        <v>1.05395064039705</v>
+        <v>1.04971194914354</v>
       </c>
       <c r="E6">
-        <v>1.052615017338382</v>
+        <v>1.050031127124803</v>
       </c>
       <c r="F6">
-        <v>1.057909712454955</v>
+        <v>1.055749538686099</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.06802742387405</v>
+        <v>1.065566276007274</v>
       </c>
       <c r="J6">
-        <v>1.063503063755421</v>
+        <v>1.060172051567546</v>
       </c>
       <c r="K6">
-        <v>1.063194230951269</v>
+        <v>1.058999398650354</v>
       </c>
       <c r="L6">
-        <v>1.061872381463336</v>
+        <v>1.059315258955795</v>
       </c>
       <c r="M6">
-        <v>1.067112724205532</v>
+        <v>1.06497464530798</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.061687307173721</v>
+        <v>1.059995207118085</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.055767633534698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.052811654598894</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027114211923902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044316612271741</v>
+        <v>1.040988124760223</v>
       </c>
       <c r="D7">
-        <v>1.052992619274844</v>
+        <v>1.048847706014763</v>
       </c>
       <c r="E7">
-        <v>1.051502948886617</v>
+        <v>1.048992132158802</v>
       </c>
       <c r="F7">
-        <v>1.056879229458683</v>
+        <v>1.054775077806622</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.067559954115201</v>
+        <v>1.065154959465519</v>
       </c>
       <c r="J7">
-        <v>1.062645129733026</v>
+        <v>1.059392716997775</v>
       </c>
       <c r="K7">
-        <v>1.06248812296507</v>
+        <v>1.058387454267027</v>
       </c>
       <c r="L7">
-        <v>1.061014304787696</v>
+        <v>1.058530331542578</v>
       </c>
       <c r="M7">
-        <v>1.066333631358962</v>
+        <v>1.064251685591101</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.061070724625379</v>
+        <v>1.059423047705595</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.055272490236671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.052383512499399</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026972497225661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038411223834509</v>
+        <v>1.035422140124949</v>
       </c>
       <c r="D8">
-        <v>1.04889229843053</v>
+        <v>1.045153899817493</v>
       </c>
       <c r="E8">
-        <v>1.046751243799005</v>
+        <v>1.044561327219761</v>
       </c>
       <c r="F8">
-        <v>1.052485211375497</v>
+        <v>1.050626652305035</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.065533699410508</v>
+        <v>1.063372102375953</v>
       </c>
       <c r="J8">
-        <v>1.058960984314693</v>
+        <v>1.056050445713249</v>
       </c>
       <c r="K8">
-        <v>1.059448345289559</v>
+        <v>1.055755091588734</v>
       </c>
       <c r="L8">
-        <v>1.05733309704955</v>
+        <v>1.055169711759079</v>
       </c>
       <c r="M8">
-        <v>1.062998244953702</v>
+        <v>1.061161890438063</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.058431058014961</v>
+        <v>1.056977740169986</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.053127688625448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.05052723884281</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026353457753441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02749896207004</v>
+        <v>1.025163019799511</v>
       </c>
       <c r="D9">
-        <v>1.041328468074373</v>
+        <v>1.038360550907026</v>
       </c>
       <c r="E9">
-        <v>1.038003779693968</v>
+        <v>1.036435088481808</v>
       </c>
       <c r="F9">
-        <v>1.044424335403517</v>
+        <v>1.043040276926634</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.061704365221369</v>
+        <v>1.060003666134252</v>
       </c>
       <c r="J9">
-        <v>1.052116681430913</v>
+        <v>1.049857460594091</v>
       </c>
       <c r="K9">
-        <v>1.053784807810786</v>
+        <v>1.050860470590316</v>
       </c>
       <c r="L9">
-        <v>1.050508959404834</v>
+        <v>1.048963450664835</v>
       </c>
       <c r="M9">
-        <v>1.056835551082153</v>
+        <v>1.055471624062746</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.053553800932117</v>
+        <v>1.052474362466443</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.049120199002314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.047063124926711</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025175602886839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020007696225735</v>
+        <v>1.018121024888504</v>
       </c>
       <c r="D10">
-        <v>1.036178126603886</v>
+        <v>1.033737270054554</v>
       </c>
       <c r="E10">
-        <v>1.032085271325277</v>
+        <v>1.030937493747004</v>
       </c>
       <c r="F10">
-        <v>1.039018579140449</v>
+        <v>1.037957815040361</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.059062341132667</v>
+        <v>1.057675572833662</v>
       </c>
       <c r="J10">
-        <v>1.04744938529319</v>
+        <v>1.045633680842986</v>
       </c>
       <c r="K10">
-        <v>1.049923516491085</v>
+        <v>1.047522982194304</v>
       </c>
       <c r="L10">
-        <v>1.045898413394632</v>
+        <v>1.044769760294357</v>
       </c>
       <c r="M10">
-        <v>1.052717352149467</v>
+        <v>1.051673958695062</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.050345281409475</v>
+        <v>1.049519566147689</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046406649014687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044721621031602</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024379293522095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017726342557557</v>
+        <v>1.015851537697833</v>
       </c>
       <c r="D11">
-        <v>1.034771020939008</v>
+        <v>1.032381272073877</v>
       </c>
       <c r="E11">
-        <v>1.030739044156467</v>
+        <v>1.029546897206124</v>
       </c>
       <c r="F11">
-        <v>1.03806676795962</v>
+        <v>1.0369879143825</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.058508515584135</v>
+        <v>1.057145443201244</v>
       </c>
       <c r="J11">
-        <v>1.046379836423102</v>
+        <v>1.04457942577374</v>
       </c>
       <c r="K11">
-        <v>1.049065704028133</v>
+        <v>1.046717313805485</v>
       </c>
       <c r="L11">
-        <v>1.045103651372454</v>
+        <v>1.043932314986563</v>
       </c>
       <c r="M11">
-        <v>1.052304816236335</v>
+        <v>1.051244450680069</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.050449074148865</v>
+        <v>1.049610338431509</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045832522851723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044187601870078</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024332200352781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01724451461674</v>
+        <v>1.015304491889266</v>
       </c>
       <c r="D12">
-        <v>1.034550797433949</v>
+        <v>1.032112633652634</v>
       </c>
       <c r="E12">
-        <v>1.030693250242204</v>
+        <v>1.029398012521224</v>
       </c>
       <c r="F12">
-        <v>1.038227817040641</v>
+        <v>1.03708210959248</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.058522307837165</v>
+        <v>1.05712559294901</v>
       </c>
       <c r="J12">
-        <v>1.046336571063847</v>
+        <v>1.044474970340433</v>
       </c>
       <c r="K12">
-        <v>1.049044701504783</v>
+        <v>1.046649424934474</v>
       </c>
       <c r="L12">
-        <v>1.04525512963734</v>
+        <v>1.043982864053517</v>
       </c>
       <c r="M12">
-        <v>1.05265753557517</v>
+        <v>1.051531764230441</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.051050357468241</v>
+        <v>1.050160180691872</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045817673786759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044139604316339</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024423469820409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018145484483561</v>
+        <v>1.016072413772805</v>
       </c>
       <c r="D13">
-        <v>1.035259683605279</v>
+        <v>1.032689278957904</v>
       </c>
       <c r="E13">
-        <v>1.031675757007058</v>
+        <v>1.030220682267128</v>
       </c>
       <c r="F13">
-        <v>1.039289274022569</v>
+        <v>1.038031382844743</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05899761588825</v>
+        <v>1.057518308396922</v>
       </c>
       <c r="J13">
-        <v>1.047111375529835</v>
+        <v>1.045121605783573</v>
       </c>
       <c r="K13">
-        <v>1.04969929290525</v>
+        <v>1.04717387854809</v>
       </c>
       <c r="L13">
-        <v>1.046178176354736</v>
+        <v>1.044748764259207</v>
       </c>
       <c r="M13">
-        <v>1.053658931981504</v>
+        <v>1.052422801616525</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.052115663203929</v>
+        <v>1.051138462895074</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046278022859921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044507693559862</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024641538394032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019398076959014</v>
+        <v>1.01720321336226</v>
       </c>
       <c r="D14">
-        <v>1.036174281507007</v>
+        <v>1.03347509363018</v>
       </c>
       <c r="E14">
-        <v>1.032823072975616</v>
+        <v>1.031232873326114</v>
       </c>
       <c r="F14">
-        <v>1.040434877753061</v>
+        <v>1.039079686750576</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.059536904215509</v>
+        <v>1.057978716597714</v>
       </c>
       <c r="J14">
-        <v>1.048020095735704</v>
+        <v>1.045912084443037</v>
       </c>
       <c r="K14">
-        <v>1.05046091190462</v>
+        <v>1.047808352905401</v>
       </c>
       <c r="L14">
-        <v>1.047167643307322</v>
+        <v>1.045605107624532</v>
       </c>
       <c r="M14">
-        <v>1.054648541551131</v>
+        <v>1.053316475591619</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.053069501008528</v>
+        <v>1.05201660002268</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046817900819355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044957811341671</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024851029312865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020017212085328</v>
+        <v>1.017775801298468</v>
       </c>
       <c r="D15">
-        <v>1.036612599100076</v>
+        <v>1.033861678100414</v>
       </c>
       <c r="E15">
-        <v>1.033343980864607</v>
+        <v>1.031705955099136</v>
       </c>
       <c r="F15">
-        <v>1.040931692454709</v>
+        <v>1.039541119740184</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.059778218558721</v>
+        <v>1.058188794950205</v>
       </c>
       <c r="J15">
-        <v>1.048434125732763</v>
+        <v>1.046280604209278</v>
       </c>
       <c r="K15">
-        <v>1.050807296396598</v>
+        <v>1.048103526433817</v>
       </c>
       <c r="L15">
-        <v>1.047594738868396</v>
+        <v>1.045984980046244</v>
       </c>
       <c r="M15">
-        <v>1.055053008852732</v>
+        <v>1.053685975900631</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.053426380329449</v>
+        <v>1.052345868412228</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.047068579365015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045172856530129</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024934759061361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023017125942891</v>
+        <v>1.020614521045144</v>
       </c>
       <c r="D16">
-        <v>1.038657432291978</v>
+        <v>1.035711417938214</v>
       </c>
       <c r="E16">
-        <v>1.035662162988833</v>
+        <v>1.033882320215236</v>
       </c>
       <c r="F16">
-        <v>1.04304495452921</v>
+        <v>1.041543099592899</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.060821714344716</v>
+        <v>1.059117248288304</v>
       </c>
       <c r="J16">
-        <v>1.050272415248896</v>
+        <v>1.047959215085082</v>
       </c>
       <c r="K16">
-        <v>1.052327379731834</v>
+        <v>1.049429623584691</v>
       </c>
       <c r="L16">
-        <v>1.04938117847429</v>
+        <v>1.047630666103427</v>
       </c>
       <c r="M16">
-        <v>1.056643679242138</v>
+        <v>1.055166117212791</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.05464532414578</v>
+        <v>1.053477415954802</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04814641270944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.046113837399824</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025237322023943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024666672695633</v>
+        <v>1.022202700984156</v>
       </c>
       <c r="D17">
-        <v>1.039751759905983</v>
+        <v>1.036722260284579</v>
       </c>
       <c r="E17">
-        <v>1.036844606417505</v>
+        <v>1.035024618422117</v>
       </c>
       <c r="F17">
-        <v>1.044064645311145</v>
+        <v>1.042526882810707</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.061339271299853</v>
+        <v>1.059586967370475</v>
       </c>
       <c r="J17">
-        <v>1.051208870326381</v>
+        <v>1.048833611060419</v>
       </c>
       <c r="K17">
-        <v>1.053096936038112</v>
+        <v>1.050115658629635</v>
       </c>
       <c r="L17">
-        <v>1.050236050312281</v>
+        <v>1.048445197351318</v>
       </c>
       <c r="M17">
-        <v>1.057341788524047</v>
+        <v>1.055828200571094</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.055069482411522</v>
+        <v>1.053872980980755</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04869304421767</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046601666398912</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025359817188048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025270098047907</v>
+        <v>1.022832629143097</v>
       </c>
       <c r="D18">
-        <v>1.040089868053434</v>
+        <v>1.037072676477527</v>
       </c>
       <c r="E18">
-        <v>1.037101866165403</v>
+        <v>1.035335294856429</v>
       </c>
       <c r="F18">
-        <v>1.044167508173099</v>
+        <v>1.042662157538846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.061424807623927</v>
+        <v>1.059682956715083</v>
       </c>
       <c r="J18">
-        <v>1.051411288254718</v>
+        <v>1.049059958028733</v>
       </c>
       <c r="K18">
-        <v>1.053250707955313</v>
+        <v>1.050280764849999</v>
       </c>
       <c r="L18">
-        <v>1.050309495749547</v>
+        <v>1.048570750136256</v>
       </c>
       <c r="M18">
-        <v>1.057265047324694</v>
+        <v>1.055782991904447</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.054774012032721</v>
+        <v>1.053602198541176</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048790317326249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046705806809589</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025322951788537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024951594094829</v>
+        <v>1.022615159923782</v>
       </c>
       <c r="D19">
-        <v>1.039773443928515</v>
+        <v>1.036850871724506</v>
       </c>
       <c r="E19">
-        <v>1.036544632396731</v>
+        <v>1.034909334923385</v>
       </c>
       <c r="F19">
-        <v>1.043451763477296</v>
+        <v>1.042036103375816</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.061138484712758</v>
+        <v>1.059456980282578</v>
       </c>
       <c r="J19">
-        <v>1.050974687309258</v>
+        <v>1.048720401772435</v>
       </c>
       <c r="K19">
-        <v>1.052878165139862</v>
+        <v>1.050001146837824</v>
       </c>
       <c r="L19">
-        <v>1.049699699854308</v>
+        <v>1.048090054606905</v>
       </c>
       <c r="M19">
-        <v>1.056499613999152</v>
+        <v>1.055105780802363</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053847693399624</v>
+        <v>1.052745283744033</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048533217558841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04651503755801</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025156641566248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022017349573562</v>
+        <v>1.019999872298225</v>
       </c>
       <c r="D20">
-        <v>1.037582370644673</v>
+        <v>1.034992142832983</v>
       </c>
       <c r="E20">
-        <v>1.033688642206411</v>
+        <v>1.032414334375172</v>
       </c>
       <c r="F20">
-        <v>1.040472789026896</v>
+        <v>1.039315833761856</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.05979416907014</v>
+        <v>1.058317701242701</v>
       </c>
       <c r="J20">
-        <v>1.048725150432477</v>
+        <v>1.046781021890181</v>
       </c>
       <c r="K20">
-        <v>1.05099507332833</v>
+        <v>1.048446392014054</v>
       </c>
       <c r="L20">
-        <v>1.047163900235608</v>
+        <v>1.045910196586287</v>
       </c>
       <c r="M20">
-        <v>1.053839443083447</v>
+        <v>1.052700880427772</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051222885295846</v>
+        <v>1.05032184528705</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047205710017461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045420066808569</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024614765713602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016172218232002</v>
+        <v>1.014536243570676</v>
       </c>
       <c r="D21">
-        <v>1.033539252602613</v>
+        <v>1.031386006090961</v>
       </c>
       <c r="E21">
-        <v>1.028995532158616</v>
+        <v>1.028088992962285</v>
       </c>
       <c r="F21">
-        <v>1.036137907567965</v>
+        <v>1.035260438789938</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.057664758333312</v>
+        <v>1.056449683177228</v>
       </c>
       <c r="J21">
-        <v>1.04500900852022</v>
+        <v>1.043438536322387</v>
       </c>
       <c r="K21">
-        <v>1.047911904218495</v>
+        <v>1.045796197672837</v>
       </c>
       <c r="L21">
-        <v>1.0434476380863</v>
+        <v>1.04255706015184</v>
       </c>
       <c r="M21">
-        <v>1.050465522673159</v>
+        <v>1.04960322833213</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048512422798897</v>
+        <v>1.047829981805771</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045029051128046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043549868281647</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023949044425138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012448876968546</v>
+        <v>1.01105705363599</v>
       </c>
       <c r="D22">
-        <v>1.030968831777639</v>
+        <v>1.029093667725412</v>
       </c>
       <c r="E22">
-        <v>1.026033930350513</v>
+        <v>1.025361052243907</v>
       </c>
       <c r="F22">
-        <v>1.033428427258771</v>
+        <v>1.032729076546596</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.056307186880978</v>
+        <v>1.055258310153937</v>
       </c>
       <c r="J22">
-        <v>1.042652236676113</v>
+        <v>1.04131949782537</v>
       </c>
       <c r="K22">
-        <v>1.045950780708011</v>
+        <v>1.044109996852069</v>
       </c>
       <c r="L22">
-        <v>1.041106710046681</v>
+        <v>1.040446305128739</v>
       </c>
       <c r="M22">
-        <v>1.048365526839294</v>
+        <v>1.04767890011104</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046850433240574</v>
+        <v>1.046307018754638</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.043629168657308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.042343059779899</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023525802610511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014408030494975</v>
+        <v>1.012890571333723</v>
       </c>
       <c r="D23">
-        <v>1.032312270619846</v>
+        <v>1.030293054502351</v>
       </c>
       <c r="E23">
-        <v>1.027585631949676</v>
+        <v>1.026793922112013</v>
       </c>
       <c r="F23">
-        <v>1.034851988705659</v>
+        <v>1.034061722631584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.057015871685666</v>
+        <v>1.055881193059444</v>
       </c>
       <c r="J23">
-        <v>1.043884998168137</v>
+        <v>1.042430004879283</v>
       </c>
       <c r="K23">
-        <v>1.046971047826546</v>
+        <v>1.044987886418512</v>
       </c>
       <c r="L23">
-        <v>1.042329096085283</v>
+        <v>1.041551670384848</v>
       </c>
       <c r="M23">
-        <v>1.049465676358042</v>
+        <v>1.048689409685367</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.0477211197253</v>
+        <v>1.047106762520535</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044341011409355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.042953285739871</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023741511414445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021978820992342</v>
+        <v>1.019979843529214</v>
       </c>
       <c r="D24">
-        <v>1.037528663176828</v>
+        <v>1.03495489898131</v>
       </c>
       <c r="E24">
-        <v>1.033607051838596</v>
+        <v>1.032357110775789</v>
       </c>
       <c r="F24">
-        <v>1.040376202567125</v>
+        <v>1.039236014057004</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.059746061187555</v>
+        <v>1.058280401531128</v>
       </c>
       <c r="J24">
-        <v>1.0486562977374</v>
+        <v>1.046729900774587</v>
       </c>
       <c r="K24">
-        <v>1.050927297917859</v>
+        <v>1.048394768113769</v>
       </c>
       <c r="L24">
-        <v>1.047068620029389</v>
+        <v>1.045838866834658</v>
       </c>
       <c r="M24">
-        <v>1.053729521250642</v>
+        <v>1.052607439631984</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.051095626044714</v>
+        <v>1.050207585956214</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.047130796211153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045353880396699</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024581481458206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03041614094938</v>
+        <v>1.027898177195522</v>
       </c>
       <c r="D25">
-        <v>1.043361314755914</v>
+        <v>1.040181821940481</v>
       </c>
       <c r="E25">
-        <v>1.040345884604108</v>
+        <v>1.038601892411071</v>
       </c>
       <c r="F25">
-        <v>1.04657315271125</v>
+        <v>1.045055718701694</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.062747711557231</v>
+        <v>1.060920133445017</v>
       </c>
       <c r="J25">
-        <v>1.053961516620861</v>
+        <v>1.051521799849526</v>
       </c>
       <c r="K25">
-        <v>1.055321829037121</v>
+        <v>1.052186820782978</v>
       </c>
       <c r="L25">
-        <v>1.052348579628322</v>
+        <v>1.050629124184511</v>
       </c>
       <c r="M25">
-        <v>1.058489075937658</v>
+        <v>1.056992665901765</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.054862430710668</v>
+        <v>1.053678144567929</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.050235039064675</v>
+        <v>1.048031838584921</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025504945187695</v>
       </c>
     </row>
   </sheetData>
